--- a/data_created/risk_score_age_45_74.xlsx
+++ b/data_created/risk_score_age_45_74.xlsx
@@ -3320,7 +3320,7 @@
         <v>212744</v>
       </c>
       <c r="E2" t="n">
-        <v>1.83767515137936</v>
+        <v>1.55891137003845</v>
       </c>
     </row>
     <row r="3">
@@ -3337,7 +3337,7 @@
         <v>84937</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15420822928444</v>
+        <v>0.922852794248395</v>
       </c>
     </row>
     <row r="4">
@@ -3354,7 +3354,7 @@
         <v>195369</v>
       </c>
       <c r="E4" t="n">
-        <v>1.14567591996903</v>
+        <v>0.855527868302388</v>
       </c>
     </row>
     <row r="5">
@@ -3371,7 +3371,7 @@
         <v>190273</v>
       </c>
       <c r="E5" t="n">
-        <v>1.73919863878561</v>
+        <v>1.49982986012682</v>
       </c>
     </row>
     <row r="6">
@@ -3388,7 +3388,7 @@
         <v>199525</v>
       </c>
       <c r="E6" t="n">
-        <v>1.79580951141626</v>
+        <v>1.55902829263889</v>
       </c>
     </row>
     <row r="7">
@@ -3405,7 +3405,7 @@
         <v>100296</v>
       </c>
       <c r="E7" t="n">
-        <v>1.47586476838898</v>
+        <v>1.20822875414411</v>
       </c>
     </row>
     <row r="8">
@@ -3422,7 +3422,7 @@
         <v>294356</v>
       </c>
       <c r="E8" t="n">
-        <v>0.900264993621523</v>
+        <v>0.657392339310869</v>
       </c>
     </row>
     <row r="9">
@@ -3439,7 +3439,7 @@
         <v>84034</v>
       </c>
       <c r="E9" t="n">
-        <v>1.36602698624399</v>
+        <v>1.13748391621477</v>
       </c>
     </row>
     <row r="10">
@@ -3456,7 +3456,7 @@
         <v>253448</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997434532398073</v>
+        <v>0.77486308648574</v>
       </c>
     </row>
     <row r="11">
@@ -3473,7 +3473,7 @@
         <v>242362</v>
       </c>
       <c r="E11" t="n">
-        <v>0.887962324461376</v>
+        <v>0.670153731981998</v>
       </c>
     </row>
     <row r="12">
@@ -3490,7 +3490,7 @@
         <v>246708</v>
       </c>
       <c r="E12" t="n">
-        <v>1.21285950835273</v>
+        <v>0.971477686672281</v>
       </c>
     </row>
     <row r="13">
@@ -3507,7 +3507,7 @@
         <v>496395</v>
       </c>
       <c r="E13" t="n">
-        <v>1.20433540500931</v>
+        <v>0.962007484598245</v>
       </c>
     </row>
     <row r="14">
@@ -3524,7 +3524,7 @@
         <v>168174</v>
       </c>
       <c r="E14" t="n">
-        <v>1.07853778165264</v>
+        <v>0.851663556870703</v>
       </c>
     </row>
     <row r="15">
@@ -3541,7 +3541,7 @@
         <v>1626085</v>
       </c>
       <c r="E15" t="n">
-        <v>1.25722790213833</v>
+        <v>1.01442988814265</v>
       </c>
     </row>
     <row r="16">
@@ -3558,7 +3558,7 @@
         <v>249947</v>
       </c>
       <c r="E16" t="n">
-        <v>1.10001451275519</v>
+        <v>0.873196594515146</v>
       </c>
     </row>
     <row r="17">
@@ -3575,7 +3575,7 @@
         <v>134079</v>
       </c>
       <c r="E17" t="n">
-        <v>1.21576945461045</v>
+        <v>0.978410590717576</v>
       </c>
     </row>
     <row r="18">
@@ -3592,7 +3592,7 @@
         <v>185025</v>
       </c>
       <c r="E18" t="n">
-        <v>1.16472434511903</v>
+        <v>0.928091763629623</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>535676</v>
       </c>
       <c r="E19" t="n">
-        <v>1.45348054654151</v>
+        <v>1.24573748837356</v>
       </c>
     </row>
     <row r="20">
@@ -3626,7 +3626,7 @@
         <v>95494</v>
       </c>
       <c r="E20" t="n">
-        <v>1.63136242806452</v>
+        <v>1.41516008871777</v>
       </c>
     </row>
     <row r="21">
@@ -3643,7 +3643,7 @@
         <v>85258</v>
       </c>
       <c r="E21" t="n">
-        <v>1.16674971977361</v>
+        <v>0.949566347807999</v>
       </c>
     </row>
     <row r="22">
@@ -3660,7 +3660,7 @@
         <v>88028</v>
       </c>
       <c r="E22" t="n">
-        <v>1.35129450631659</v>
+        <v>1.11405991486735</v>
       </c>
     </row>
     <row r="23">
@@ -3677,7 +3677,7 @@
         <v>75867</v>
       </c>
       <c r="E23" t="n">
-        <v>1.34965700336215</v>
+        <v>1.11890325514901</v>
       </c>
     </row>
     <row r="24">
@@ -3694,7 +3694,7 @@
         <v>198594</v>
       </c>
       <c r="E24" t="n">
-        <v>1.45601167466807</v>
+        <v>1.20237634182662</v>
       </c>
     </row>
     <row r="25">
@@ -3711,7 +3711,7 @@
         <v>82397</v>
       </c>
       <c r="E25" t="n">
-        <v>1.33412318781998</v>
+        <v>1.12788550872298</v>
       </c>
     </row>
     <row r="26">
@@ -3728,7 +3728,7 @@
         <v>79188</v>
       </c>
       <c r="E26" t="n">
-        <v>1.11662525166142</v>
+        <v>0.930769513376525</v>
       </c>
     </row>
     <row r="27">
@@ -3745,7 +3745,7 @@
         <v>85391</v>
       </c>
       <c r="E27" t="n">
-        <v>1.36225780794415</v>
+        <v>1.20232001377267</v>
       </c>
     </row>
     <row r="28">
@@ -3762,7 +3762,7 @@
         <v>352456</v>
       </c>
       <c r="E28" t="n">
-        <v>1.23878853491916</v>
+        <v>1.02398120067778</v>
       </c>
     </row>
     <row r="29">
@@ -3779,7 +3779,7 @@
         <v>111683</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0775595264835</v>
+        <v>0.870354640019393</v>
       </c>
     </row>
     <row r="30">
@@ -3796,7 +3796,7 @@
         <v>73071</v>
       </c>
       <c r="E30" t="n">
-        <v>1.46344815417887</v>
+        <v>1.2585154635218</v>
       </c>
     </row>
     <row r="31">
@@ -3813,7 +3813,7 @@
         <v>380887</v>
       </c>
       <c r="E31" t="n">
-        <v>1.42565395790871</v>
+        <v>1.22533133409247</v>
       </c>
     </row>
     <row r="32">
@@ -3830,7 +3830,7 @@
         <v>77772</v>
       </c>
       <c r="E32" t="n">
-        <v>1.39947689746628</v>
+        <v>1.24504452261477</v>
       </c>
     </row>
     <row r="33">
@@ -3847,7 +3847,7 @@
         <v>122334</v>
       </c>
       <c r="E33" t="n">
-        <v>1.1539870834441</v>
+        <v>0.958620240061146</v>
       </c>
     </row>
     <row r="34">
@@ -3864,7 +3864,7 @@
         <v>83026</v>
       </c>
       <c r="E34" t="n">
-        <v>1.21582786219564</v>
+        <v>0.999694861955682</v>
       </c>
     </row>
     <row r="35">
@@ -3881,7 +3881,7 @@
         <v>104823</v>
       </c>
       <c r="E35" t="n">
-        <v>1.11510719078695</v>
+        <v>0.939541481962306</v>
       </c>
     </row>
     <row r="36">
@@ -3898,7 +3898,7 @@
         <v>115326</v>
       </c>
       <c r="E36" t="n">
-        <v>0.903415630661693</v>
+        <v>0.700048383043783</v>
       </c>
     </row>
     <row r="37">
@@ -3915,7 +3915,7 @@
         <v>92736</v>
       </c>
       <c r="E37" t="n">
-        <v>1.58892914998497</v>
+        <v>1.45022349450718</v>
       </c>
     </row>
     <row r="38">
@@ -3932,7 +3932,7 @@
         <v>93297</v>
       </c>
       <c r="E38" t="n">
-        <v>1.22868862150723</v>
+        <v>1.03916364561026</v>
       </c>
     </row>
     <row r="39">
@@ -3949,7 +3949,7 @@
         <v>89798</v>
       </c>
       <c r="E39" t="n">
-        <v>1.43433404748643</v>
+        <v>1.23521521626427</v>
       </c>
     </row>
     <row r="40">
@@ -3966,7 +3966,7 @@
         <v>80400</v>
       </c>
       <c r="E40" t="n">
-        <v>1.1891038741002</v>
+        <v>1.0357153226071</v>
       </c>
     </row>
     <row r="41">
@@ -3983,7 +3983,7 @@
         <v>270450</v>
       </c>
       <c r="E41" t="n">
-        <v>1.36588492990537</v>
+        <v>1.162557070104</v>
       </c>
     </row>
     <row r="42">
@@ -4000,7 +4000,7 @@
         <v>87924</v>
       </c>
       <c r="E42" t="n">
-        <v>1.26892352963842</v>
+        <v>1.06205619496386</v>
       </c>
     </row>
     <row r="43">
@@ -4017,7 +4017,7 @@
         <v>109700</v>
       </c>
       <c r="E43" t="n">
-        <v>1.269410644996</v>
+        <v>1.09160888929959</v>
       </c>
     </row>
     <row r="44">
@@ -4034,7 +4034,7 @@
         <v>97626</v>
       </c>
       <c r="E44" t="n">
-        <v>1.6532910935086</v>
+        <v>1.43710488018033</v>
       </c>
     </row>
     <row r="45">
@@ -4051,7 +4051,7 @@
         <v>129778</v>
       </c>
       <c r="E45" t="n">
-        <v>0.996040974103794</v>
+        <v>0.784801633808949</v>
       </c>
     </row>
     <row r="46">
@@ -4068,7 +4068,7 @@
         <v>167843</v>
       </c>
       <c r="E46" t="n">
-        <v>1.29242210881532</v>
+        <v>1.10870015265424</v>
       </c>
     </row>
     <row r="47">
@@ -4085,7 +4085,7 @@
         <v>113821</v>
       </c>
       <c r="E47" t="n">
-        <v>1.01994490934266</v>
+        <v>0.804893622569287</v>
       </c>
     </row>
     <row r="48">
@@ -4102,7 +4102,7 @@
         <v>107091</v>
       </c>
       <c r="E48" t="n">
-        <v>1.05896831518939</v>
+        <v>0.859066448488546</v>
       </c>
     </row>
     <row r="49">
@@ -4119,7 +4119,7 @@
         <v>113089</v>
       </c>
       <c r="E49" t="n">
-        <v>1.54197381632917</v>
+        <v>1.37430861485316</v>
       </c>
     </row>
     <row r="50">
@@ -4136,7 +4136,7 @@
         <v>103906</v>
       </c>
       <c r="E50" t="n">
-        <v>1.15143166906182</v>
+        <v>0.907452966469261</v>
       </c>
     </row>
     <row r="51">
@@ -4153,7 +4153,7 @@
         <v>171831</v>
       </c>
       <c r="E51" t="n">
-        <v>1.20652466097332</v>
+        <v>1.03988371361088</v>
       </c>
     </row>
     <row r="52">
@@ -4170,7 +4170,7 @@
         <v>151979</v>
       </c>
       <c r="E52" t="n">
-        <v>1.24983209359291</v>
+        <v>1.02688910428963</v>
       </c>
     </row>
     <row r="53">
@@ -4187,7 +4187,7 @@
         <v>116280</v>
       </c>
       <c r="E53" t="n">
-        <v>1.23806742631726</v>
+        <v>1.02360019136637</v>
       </c>
     </row>
     <row r="54">
@@ -4204,7 +4204,7 @@
         <v>78038</v>
       </c>
       <c r="E54" t="n">
-        <v>1.00127120336642</v>
+        <v>0.822235555075873</v>
       </c>
     </row>
     <row r="55">
@@ -4221,7 +4221,7 @@
         <v>211820</v>
       </c>
       <c r="E55" t="n">
-        <v>1.42475502967331</v>
+        <v>1.22513558948772</v>
       </c>
     </row>
     <row r="56">
@@ -4238,7 +4238,7 @@
         <v>234954</v>
       </c>
       <c r="E56" t="n">
-        <v>0.975838977547512</v>
+        <v>0.790693772937906</v>
       </c>
     </row>
     <row r="57">
@@ -4255,7 +4255,7 @@
         <v>527422</v>
       </c>
       <c r="E57" t="n">
-        <v>1.49326126972011</v>
+        <v>1.2856485180951</v>
       </c>
     </row>
     <row r="58">
@@ -4272,7 +4272,7 @@
         <v>140402</v>
       </c>
       <c r="E58" t="n">
-        <v>1.16533921855363</v>
+        <v>0.95505028094577</v>
       </c>
     </row>
     <row r="59">
@@ -4289,7 +4289,7 @@
         <v>174228</v>
       </c>
       <c r="E59" t="n">
-        <v>1.2128947835535</v>
+        <v>1.00689582664512</v>
       </c>
     </row>
     <row r="60">
@@ -4306,7 +4306,7 @@
         <v>203066</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0959470811511</v>
+        <v>0.91550742298133</v>
       </c>
     </row>
     <row r="61">
@@ -4323,7 +4323,7 @@
         <v>87863</v>
       </c>
       <c r="E61" t="n">
-        <v>1.50623801929732</v>
+        <v>1.32461166279749</v>
       </c>
     </row>
     <row r="62">
@@ -4340,7 +4340,7 @@
         <v>160485</v>
       </c>
       <c r="E62" t="n">
-        <v>1.15932234016854</v>
+        <v>0.96437055948658</v>
       </c>
     </row>
     <row r="63">
@@ -4357,7 +4357,7 @@
         <v>85153</v>
       </c>
       <c r="E63" t="n">
-        <v>1.63694973327146</v>
+        <v>1.4131258639774</v>
       </c>
     </row>
     <row r="64">
@@ -4374,7 +4374,7 @@
         <v>94867</v>
       </c>
       <c r="E64" t="n">
-        <v>1.54312405299751</v>
+        <v>1.3337730557114</v>
       </c>
     </row>
     <row r="65">
@@ -4391,7 +4391,7 @@
         <v>201882</v>
       </c>
       <c r="E65" t="n">
-        <v>1.01560543358546</v>
+        <v>0.808990589667451</v>
       </c>
     </row>
     <row r="66">
@@ -4408,7 +4408,7 @@
         <v>89784</v>
       </c>
       <c r="E66" t="n">
-        <v>1.5986448004915</v>
+        <v>1.41142103484236</v>
       </c>
     </row>
     <row r="67">
@@ -4425,7 +4425,7 @@
         <v>110611</v>
       </c>
       <c r="E67" t="n">
-        <v>1.70693835427972</v>
+        <v>1.52432768849388</v>
       </c>
     </row>
     <row r="68">
@@ -4442,7 +4442,7 @@
         <v>277436</v>
       </c>
       <c r="E68" t="n">
-        <v>0.851963771917139</v>
+        <v>0.662613933136402</v>
       </c>
     </row>
     <row r="69">
@@ -4459,7 +4459,7 @@
         <v>84308</v>
       </c>
       <c r="E69" t="n">
-        <v>0.93607791304558</v>
+        <v>0.736753465536286</v>
       </c>
     </row>
     <row r="70">
@@ -4476,7 +4476,7 @@
         <v>80971</v>
       </c>
       <c r="E70" t="n">
-        <v>1.27162256200363</v>
+        <v>1.1149175613708</v>
       </c>
     </row>
     <row r="71">
@@ -4493,7 +4493,7 @@
         <v>160323</v>
       </c>
       <c r="E71" t="n">
-        <v>1.45853879458667</v>
+        <v>1.26158118989571</v>
       </c>
     </row>
     <row r="72">
@@ -4510,7 +4510,7 @@
         <v>90290</v>
       </c>
       <c r="E72" t="n">
-        <v>0.92949547011488</v>
+        <v>0.720517685127416</v>
       </c>
     </row>
     <row r="73">
@@ -4527,7 +4527,7 @@
         <v>469459</v>
       </c>
       <c r="E73" t="n">
-        <v>1.35845154153064</v>
+        <v>1.1851647507789</v>
       </c>
     </row>
     <row r="74">
@@ -4544,7 +4544,7 @@
         <v>3999742</v>
       </c>
       <c r="E74" t="n">
-        <v>1.39022164499629</v>
+        <v>1.20807449030525</v>
       </c>
     </row>
     <row r="75">
@@ -4561,7 +4561,7 @@
         <v>71115</v>
       </c>
       <c r="E75" t="n">
-        <v>1.73078059828267</v>
+        <v>1.5416856001572</v>
       </c>
     </row>
     <row r="76">
@@ -4578,7 +4578,7 @@
         <v>79275</v>
       </c>
       <c r="E76" t="n">
-        <v>1.31925030242391</v>
+        <v>1.1310643787421</v>
       </c>
     </row>
     <row r="77">
@@ -4595,7 +4595,7 @@
         <v>90599</v>
       </c>
       <c r="E77" t="n">
-        <v>1.41279827460666</v>
+        <v>1.21237604542333</v>
       </c>
     </row>
     <row r="78">
@@ -4612,7 +4612,7 @@
         <v>83100</v>
       </c>
       <c r="E78" t="n">
-        <v>1.47666110895183</v>
+        <v>1.27161920131725</v>
       </c>
     </row>
     <row r="79">
@@ -4629,7 +4629,7 @@
         <v>78108</v>
       </c>
       <c r="E79" t="n">
-        <v>0.829330446425292</v>
+        <v>0.630499177795192</v>
       </c>
     </row>
     <row r="80">
@@ -4646,7 +4646,7 @@
         <v>96009</v>
       </c>
       <c r="E80" t="n">
-        <v>0.998348918736546</v>
+        <v>0.795988193635516</v>
       </c>
     </row>
     <row r="81">
@@ -4663,7 +4663,7 @@
         <v>214220</v>
       </c>
       <c r="E81" t="n">
-        <v>1.40916176447863</v>
+        <v>1.22625482910873</v>
       </c>
     </row>
     <row r="82">
@@ -4680,7 +4680,7 @@
         <v>207211</v>
       </c>
       <c r="E82" t="n">
-        <v>1.5471062869117</v>
+        <v>1.35842581154693</v>
       </c>
     </row>
     <row r="83">
@@ -4697,7 +4697,7 @@
         <v>81443</v>
       </c>
       <c r="E83" t="n">
-        <v>0.781309058246628</v>
+        <v>0.566278953553526</v>
       </c>
     </row>
     <row r="84">
@@ -4714,7 +4714,7 @@
         <v>113316</v>
       </c>
       <c r="E84" t="n">
-        <v>1.20143028217724</v>
+        <v>1.02810154963061</v>
       </c>
     </row>
     <row r="85">
@@ -4731,7 +4731,7 @@
         <v>79782</v>
       </c>
       <c r="E85" t="n">
-        <v>0.96010852749231</v>
+        <v>0.731845738357985</v>
       </c>
     </row>
     <row r="86">
@@ -4748,7 +4748,7 @@
         <v>86151</v>
       </c>
       <c r="E86" t="n">
-        <v>0.950747568601216</v>
+        <v>0.751119929113023</v>
       </c>
     </row>
     <row r="87">
@@ -4765,7 +4765,7 @@
         <v>106086</v>
       </c>
       <c r="E87" t="n">
-        <v>1.54932054803034</v>
+        <v>1.37347667504237</v>
       </c>
     </row>
     <row r="88">
@@ -4782,7 +4782,7 @@
         <v>425204</v>
       </c>
       <c r="E88" t="n">
-        <v>1.32372856528606</v>
+        <v>1.11491221560856</v>
       </c>
     </row>
     <row r="89">
@@ -4799,7 +4799,7 @@
         <v>176208</v>
       </c>
       <c r="E89" t="n">
-        <v>1.24907838485555</v>
+        <v>1.03981818680386</v>
       </c>
     </row>
     <row r="90">
@@ -4816,7 +4816,7 @@
         <v>175850</v>
       </c>
       <c r="E90" t="n">
-        <v>1.62378891700944</v>
+        <v>1.43672205035937</v>
       </c>
     </row>
     <row r="91">
@@ -4833,7 +4833,7 @@
         <v>140557</v>
       </c>
       <c r="E91" t="n">
-        <v>1.10316855900669</v>
+        <v>0.890136373568698</v>
       </c>
     </row>
     <row r="92">
@@ -4850,7 +4850,7 @@
         <v>210038</v>
       </c>
       <c r="E92" t="n">
-        <v>1.45409945399907</v>
+        <v>1.23408613654061</v>
       </c>
     </row>
     <row r="93">
@@ -4867,7 +4867,7 @@
         <v>157507</v>
       </c>
       <c r="E93" t="n">
-        <v>1.43136083843168</v>
+        <v>1.2462283873467</v>
       </c>
     </row>
     <row r="94">
@@ -4884,7 +4884,7 @@
         <v>142632</v>
       </c>
       <c r="E94" t="n">
-        <v>1.24029080143214</v>
+        <v>1.07128364223649</v>
       </c>
     </row>
     <row r="95">
@@ -4901,7 +4901,7 @@
         <v>77895</v>
       </c>
       <c r="E95" t="n">
-        <v>1.57411714208597</v>
+        <v>1.37057316758117</v>
       </c>
     </row>
     <row r="96">
@@ -4918,7 +4918,7 @@
         <v>83007</v>
       </c>
       <c r="E96" t="n">
-        <v>0.860437252598702</v>
+        <v>0.661514418204956</v>
       </c>
     </row>
     <row r="97">
@@ -4935,7 +4935,7 @@
         <v>152946</v>
       </c>
       <c r="E97" t="n">
-        <v>1.53110555944345</v>
+        <v>1.35106655144707</v>
       </c>
     </row>
     <row r="98">
@@ -4952,7 +4952,7 @@
         <v>177446</v>
       </c>
       <c r="E98" t="n">
-        <v>1.2898191207363</v>
+        <v>1.12818786613852</v>
       </c>
     </row>
     <row r="99">
@@ -4969,7 +4969,7 @@
         <v>91788</v>
       </c>
       <c r="E99" t="n">
-        <v>1.12232907636363</v>
+        <v>0.881243155977726</v>
       </c>
     </row>
     <row r="100">
@@ -4986,7 +4986,7 @@
         <v>71562</v>
       </c>
       <c r="E100" t="n">
-        <v>1.33829984885785</v>
+        <v>1.15093893606983</v>
       </c>
     </row>
     <row r="101">
@@ -5003,7 +5003,7 @@
         <v>67908</v>
       </c>
       <c r="E101" t="n">
-        <v>0.996527211517975</v>
+        <v>0.839951666176901</v>
       </c>
     </row>
     <row r="102">
@@ -5020,7 +5020,7 @@
         <v>86683</v>
       </c>
       <c r="E102" t="n">
-        <v>0.918287558983966</v>
+        <v>0.703749784050927</v>
       </c>
     </row>
     <row r="103">
@@ -5037,7 +5037,7 @@
         <v>103555</v>
       </c>
       <c r="E103" t="n">
-        <v>1.64350173570008</v>
+        <v>1.43588460339262</v>
       </c>
     </row>
     <row r="104">
@@ -5054,7 +5054,7 @@
         <v>110037</v>
       </c>
       <c r="E104" t="n">
-        <v>1.11790919861956</v>
+        <v>0.890256472607646</v>
       </c>
     </row>
     <row r="105">
@@ -5071,7 +5071,7 @@
         <v>327722</v>
       </c>
       <c r="E105" t="n">
-        <v>1.38121675507207</v>
+        <v>1.18908110202028</v>
       </c>
     </row>
     <row r="106">
@@ -5088,7 +5088,7 @@
         <v>135325</v>
       </c>
       <c r="E106" t="n">
-        <v>0.535785690831828</v>
+        <v>0.315848445635148</v>
       </c>
     </row>
     <row r="107">
@@ -5105,7 +5105,7 @@
         <v>501890</v>
       </c>
       <c r="E107" t="n">
-        <v>1.3961066495513</v>
+        <v>1.21047884557066</v>
       </c>
     </row>
     <row r="108">
@@ -5122,7 +5122,7 @@
         <v>157594</v>
       </c>
       <c r="E108" t="n">
-        <v>1.65171715542051</v>
+        <v>1.45380274914244</v>
       </c>
     </row>
     <row r="109">
@@ -5139,7 +5139,7 @@
         <v>216983</v>
       </c>
       <c r="E109" t="n">
-        <v>1.72189820047474</v>
+        <v>1.51159211014124</v>
       </c>
     </row>
     <row r="110">
@@ -5156,7 +5156,7 @@
         <v>110784</v>
       </c>
       <c r="E110" t="n">
-        <v>1.24437281406882</v>
+        <v>1.0274993674567</v>
       </c>
     </row>
     <row r="111">
@@ -5173,7 +5173,7 @@
         <v>1419488</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13503401015395</v>
+        <v>0.922340356012063</v>
       </c>
     </row>
     <row r="112">
@@ -5190,7 +5190,7 @@
         <v>884363</v>
       </c>
       <c r="E112" t="n">
-        <v>1.05823923479197</v>
+        <v>0.854332747789965</v>
       </c>
     </row>
     <row r="113">
@@ -5207,7 +5207,7 @@
         <v>1035353</v>
       </c>
       <c r="E113" t="n">
-        <v>0.92400498614821</v>
+        <v>0.716629161497837</v>
       </c>
     </row>
     <row r="114">
@@ -5224,7 +5224,7 @@
         <v>90555</v>
       </c>
       <c r="E114" t="n">
-        <v>1.35077054950685</v>
+        <v>1.15093558914403</v>
       </c>
     </row>
     <row r="115">
@@ -5241,7 +5241,7 @@
         <v>96188</v>
       </c>
       <c r="E115" t="n">
-        <v>1.19403670154325</v>
+        <v>0.981313813556176</v>
       </c>
     </row>
     <row r="116">
@@ -5258,7 +5258,7 @@
         <v>104733</v>
       </c>
       <c r="E116" t="n">
-        <v>0.820362387950457</v>
+        <v>0.610927921781137</v>
       </c>
     </row>
     <row r="117">
@@ -5275,7 +5275,7 @@
         <v>75922</v>
       </c>
       <c r="E117" t="n">
-        <v>0.607767193036824</v>
+        <v>0.422913967019057</v>
       </c>
     </row>
     <row r="118">
@@ -5292,7 +5292,7 @@
         <v>334135</v>
       </c>
       <c r="E118" t="n">
-        <v>1.44121496417918</v>
+        <v>1.21194180635103</v>
       </c>
     </row>
     <row r="119">
@@ -5309,7 +5309,7 @@
         <v>127131</v>
       </c>
       <c r="E119" t="n">
-        <v>0.827099869341901</v>
+        <v>0.614692299391931</v>
       </c>
     </row>
     <row r="120">
@@ -5326,7 +5326,7 @@
         <v>210886</v>
       </c>
       <c r="E120" t="n">
-        <v>1.13112675400766</v>
+        <v>0.966021088304509</v>
       </c>
     </row>
     <row r="121">
@@ -5343,7 +5343,7 @@
         <v>107018</v>
       </c>
       <c r="E121" t="n">
-        <v>1.61071655729746</v>
+        <v>1.41673979180915</v>
       </c>
     </row>
     <row r="122">
@@ -5360,7 +5360,7 @@
         <v>92298</v>
       </c>
       <c r="E122" t="n">
-        <v>1.17015715484814</v>
+        <v>1.00696267079171</v>
       </c>
     </row>
     <row r="123">
@@ -5377,7 +5377,7 @@
         <v>175269</v>
       </c>
       <c r="E123" t="n">
-        <v>1.22395122336465</v>
+        <v>1.01109204134068</v>
       </c>
     </row>
     <row r="124">
@@ -5394,7 +5394,7 @@
         <v>126875</v>
       </c>
       <c r="E124" t="n">
-        <v>0.98573206483144</v>
+        <v>0.771440267560114</v>
       </c>
     </row>
     <row r="125">
@@ -5411,7 +5411,7 @@
         <v>310476</v>
       </c>
       <c r="E125" t="n">
-        <v>1.50571745130351</v>
+        <v>1.31470949475062</v>
       </c>
     </row>
     <row r="126">
@@ -5428,7 +5428,7 @@
         <v>153656</v>
       </c>
       <c r="E126" t="n">
-        <v>0.788607112141185</v>
+        <v>0.583956310852286</v>
       </c>
     </row>
     <row r="127">
@@ -5445,7 +5445,7 @@
         <v>114318</v>
       </c>
       <c r="E127" t="n">
-        <v>1.13486250421102</v>
+        <v>0.967103222071433</v>
       </c>
     </row>
     <row r="128">
@@ -5462,7 +5462,7 @@
         <v>128972</v>
       </c>
       <c r="E128" t="n">
-        <v>1.0229089399007</v>
+        <v>0.818679387542809</v>
       </c>
     </row>
     <row r="129">
@@ -5479,7 +5479,7 @@
         <v>146745</v>
       </c>
       <c r="E129" t="n">
-        <v>1.15369113573219</v>
+        <v>0.996912283638458</v>
       </c>
     </row>
     <row r="130">
@@ -5496,7 +5496,7 @@
         <v>90886</v>
       </c>
       <c r="E130" t="n">
-        <v>1.18334509024842</v>
+        <v>1.01127006241403</v>
       </c>
     </row>
     <row r="131">
@@ -5513,7 +5513,7 @@
         <v>73562</v>
       </c>
       <c r="E131" t="n">
-        <v>1.34336110488067</v>
+        <v>1.16099309847037</v>
       </c>
     </row>
     <row r="132">
@@ -5530,7 +5530,7 @@
         <v>80502</v>
       </c>
       <c r="E132" t="n">
-        <v>1.08141245131981</v>
+        <v>0.890307629085393</v>
       </c>
     </row>
     <row r="133">
@@ -5547,7 +5547,7 @@
         <v>75344</v>
       </c>
       <c r="E133" t="n">
-        <v>1.13123965341341</v>
+        <v>0.938075838239195</v>
       </c>
     </row>
     <row r="134">
@@ -5564,7 +5564,7 @@
         <v>76985</v>
       </c>
       <c r="E134" t="n">
-        <v>1.30717054396844</v>
+        <v>1.12899124938469</v>
       </c>
     </row>
     <row r="135">
@@ -5581,7 +5581,7 @@
         <v>100023</v>
       </c>
       <c r="E135" t="n">
-        <v>1.15722993720797</v>
+        <v>0.945822115639298</v>
       </c>
     </row>
     <row r="136">
@@ -5598,7 +5598,7 @@
         <v>122086</v>
       </c>
       <c r="E136" t="n">
-        <v>1.36937126859012</v>
+        <v>1.15293425267939</v>
       </c>
     </row>
     <row r="137">
@@ -5615,7 +5615,7 @@
         <v>122465</v>
       </c>
       <c r="E137" t="n">
-        <v>1.50634386508695</v>
+        <v>1.30387384417839</v>
       </c>
     </row>
     <row r="138">
@@ -5632,7 +5632,7 @@
         <v>133009</v>
       </c>
       <c r="E138" t="n">
-        <v>1.40300992615438</v>
+        <v>1.20221378194856</v>
       </c>
     </row>
     <row r="139">
@@ -5649,7 +5649,7 @@
         <v>101557</v>
       </c>
       <c r="E139" t="n">
-        <v>1.14574161319345</v>
+        <v>0.919294379883201</v>
       </c>
     </row>
     <row r="140">
@@ -5666,7 +5666,7 @@
         <v>107623</v>
       </c>
       <c r="E140" t="n">
-        <v>1.43823550590597</v>
+        <v>1.2780043763334</v>
       </c>
     </row>
     <row r="141">
@@ -5683,7 +5683,7 @@
         <v>91548</v>
       </c>
       <c r="E141" t="n">
-        <v>1.08535321145994</v>
+        <v>0.865520635286171</v>
       </c>
     </row>
     <row r="142">
@@ -5700,7 +5700,7 @@
         <v>86841</v>
       </c>
       <c r="E142" t="n">
-        <v>1.42286976738717</v>
+        <v>1.25713887201763</v>
       </c>
     </row>
     <row r="143">
@@ -5717,7 +5717,7 @@
         <v>118300</v>
       </c>
       <c r="E143" t="n">
-        <v>0.555023218552076</v>
+        <v>0.331425438567442</v>
       </c>
     </row>
     <row r="144">
@@ -5734,7 +5734,7 @@
         <v>367250</v>
       </c>
       <c r="E144" t="n">
-        <v>1.02585146433387</v>
+        <v>0.80235020037675</v>
       </c>
     </row>
     <row r="145">
@@ -5751,7 +5751,7 @@
         <v>107128</v>
       </c>
       <c r="E145" t="n">
-        <v>0.657976869440223</v>
+        <v>0.422371598214279</v>
       </c>
     </row>
     <row r="146">
@@ -5768,7 +5768,7 @@
         <v>110277</v>
       </c>
       <c r="E146" t="n">
-        <v>0.780706564872363</v>
+        <v>0.567124954785631</v>
       </c>
     </row>
     <row r="147">
@@ -5785,7 +5785,7 @@
         <v>464470</v>
       </c>
       <c r="E147" t="n">
-        <v>0.845235076499875</v>
+        <v>0.593547592185881</v>
       </c>
     </row>
     <row r="148">
@@ -5802,7 +5802,7 @@
         <v>704621</v>
       </c>
       <c r="E148" t="n">
-        <v>1.21274466894272</v>
+        <v>1.03483336088063</v>
       </c>
     </row>
     <row r="149">
@@ -5819,7 +5819,7 @@
         <v>165089</v>
       </c>
       <c r="E149" t="n">
-        <v>0.660273662882716</v>
+        <v>0.407871708896976</v>
       </c>
     </row>
     <row r="150">
@@ -5836,7 +5836,7 @@
         <v>105457</v>
       </c>
       <c r="E150" t="n">
-        <v>0.953042908589548</v>
+        <v>0.708844995056788</v>
       </c>
     </row>
     <row r="151">
@@ -5853,7 +5853,7 @@
         <v>154952</v>
       </c>
       <c r="E151" t="n">
-        <v>0.661091953654656</v>
+        <v>0.438205375695554</v>
       </c>
     </row>
     <row r="152">
@@ -5870,7 +5870,7 @@
         <v>94145</v>
       </c>
       <c r="E152" t="n">
-        <v>0.70018442071388</v>
+        <v>0.46106783673644</v>
       </c>
     </row>
     <row r="153">
@@ -5887,7 +5887,7 @@
         <v>76702</v>
       </c>
       <c r="E153" t="n">
-        <v>0.82252084116618</v>
+        <v>0.57453278973493</v>
       </c>
     </row>
     <row r="154">
@@ -5904,7 +5904,7 @@
         <v>111121</v>
       </c>
       <c r="E154" t="n">
-        <v>1.47259503159683</v>
+        <v>1.26099432264431</v>
       </c>
     </row>
     <row r="155">
@@ -5921,7 +5921,7 @@
         <v>136992</v>
       </c>
       <c r="E155" t="n">
-        <v>1.02406174159201</v>
+        <v>0.810419275621074</v>
       </c>
     </row>
     <row r="156">
@@ -5938,7 +5938,7 @@
         <v>112814</v>
       </c>
       <c r="E156" t="n">
-        <v>1.06991189257725</v>
+        <v>0.851077569330857</v>
       </c>
     </row>
     <row r="157">
@@ -5955,7 +5955,7 @@
         <v>146582</v>
       </c>
       <c r="E157" t="n">
-        <v>1.2922923852101</v>
+        <v>1.06246223601527</v>
       </c>
     </row>
     <row r="158">
@@ -5972,7 +5972,7 @@
         <v>85243</v>
       </c>
       <c r="E158" t="n">
-        <v>1.0528738931929</v>
+        <v>0.833630429932322</v>
       </c>
     </row>
     <row r="159">
@@ -5989,7 +5989,7 @@
         <v>123420</v>
       </c>
       <c r="E159" t="n">
-        <v>1.59544118524299</v>
+        <v>1.34415987359577</v>
       </c>
     </row>
     <row r="160">
@@ -6006,7 +6006,7 @@
         <v>72718</v>
       </c>
       <c r="E160" t="n">
-        <v>1.36714506546385</v>
+        <v>1.12809329295249</v>
       </c>
     </row>
     <row r="161">
@@ -6023,7 +6023,7 @@
         <v>131005</v>
       </c>
       <c r="E161" t="n">
-        <v>1.43809210735209</v>
+        <v>1.18338951271354</v>
       </c>
     </row>
     <row r="162">
@@ -6040,7 +6040,7 @@
         <v>89000</v>
       </c>
       <c r="E162" t="n">
-        <v>0.862556189868143</v>
+        <v>0.641206567745968</v>
       </c>
     </row>
     <row r="163">
@@ -6057,7 +6057,7 @@
         <v>130835</v>
       </c>
       <c r="E163" t="n">
-        <v>0.935956810491619</v>
+        <v>0.716081384618848</v>
       </c>
     </row>
     <row r="164">
@@ -6074,7 +6074,7 @@
         <v>108642</v>
       </c>
       <c r="E164" t="n">
-        <v>1.36754254729924</v>
+        <v>1.11259669830258</v>
       </c>
     </row>
     <row r="165">
@@ -6091,7 +6091,7 @@
         <v>693972</v>
       </c>
       <c r="E165" t="n">
-        <v>1.46307713710624</v>
+        <v>1.28559622455808</v>
       </c>
     </row>
     <row r="166">
@@ -6108,7 +6108,7 @@
         <v>98153</v>
       </c>
       <c r="E166" t="n">
-        <v>0.944042015609681</v>
+        <v>0.719299771772231</v>
       </c>
     </row>
     <row r="167">
@@ -6125,7 +6125,7 @@
         <v>77704</v>
       </c>
       <c r="E167" t="n">
-        <v>1.27732055281439</v>
+        <v>1.02271535656413</v>
       </c>
     </row>
     <row r="168">
@@ -6142,7 +6142,7 @@
         <v>183356</v>
       </c>
       <c r="E168" t="n">
-        <v>1.10477051705948</v>
+        <v>0.850070158352456</v>
       </c>
     </row>
     <row r="169">
@@ -6159,7 +6159,7 @@
         <v>115501</v>
       </c>
       <c r="E169" t="n">
-        <v>1.06614851925272</v>
+        <v>0.820323870955829</v>
       </c>
     </row>
     <row r="170">
@@ -6176,7 +6176,7 @@
         <v>133058</v>
       </c>
       <c r="E170" t="n">
-        <v>1.2139036447289</v>
+        <v>1.00696051084299</v>
       </c>
     </row>
     <row r="171">
@@ -6193,7 +6193,7 @@
         <v>105146</v>
       </c>
       <c r="E171" t="n">
-        <v>1.19312208782501</v>
+        <v>0.980487894983617</v>
       </c>
     </row>
     <row r="172">
@@ -6210,7 +6210,7 @@
         <v>80572</v>
       </c>
       <c r="E172" t="n">
-        <v>1.53870003403845</v>
+        <v>1.28703638882515</v>
       </c>
     </row>
     <row r="173">
@@ -6227,7 +6227,7 @@
         <v>90743</v>
       </c>
       <c r="E173" t="n">
-        <v>1.19556391022783</v>
+        <v>0.920515091010275</v>
       </c>
     </row>
     <row r="174">
@@ -6244,7 +6244,7 @@
         <v>180071</v>
       </c>
       <c r="E174" t="n">
-        <v>1.41282985310939</v>
+        <v>1.16625889852818</v>
       </c>
     </row>
     <row r="175">
@@ -6261,7 +6261,7 @@
         <v>132253</v>
       </c>
       <c r="E175" t="n">
-        <v>1.29424822972143</v>
+        <v>1.06332347509636</v>
       </c>
     </row>
     <row r="176">
@@ -6278,7 +6278,7 @@
         <v>153625</v>
       </c>
       <c r="E176" t="n">
-        <v>1.38833449268581</v>
+        <v>1.15568700690827</v>
       </c>
     </row>
     <row r="177">
@@ -6295,7 +6295,7 @@
         <v>892064</v>
       </c>
       <c r="E177" t="n">
-        <v>1.4583218636423</v>
+        <v>1.24247960786352</v>
       </c>
     </row>
     <row r="178">
@@ -6312,7 +6312,7 @@
         <v>108051</v>
       </c>
       <c r="E178" t="n">
-        <v>1.52114139803686</v>
+        <v>1.28173466387166</v>
       </c>
     </row>
     <row r="179">
@@ -6329,7 +6329,7 @@
         <v>84768</v>
       </c>
       <c r="E179" t="n">
-        <v>1.15134988371347</v>
+        <v>0.880530425127142</v>
       </c>
     </row>
     <row r="180">
@@ -6346,7 +6346,7 @@
         <v>71976</v>
       </c>
       <c r="E180" t="n">
-        <v>1.79126234421441</v>
+        <v>1.54911615541887</v>
       </c>
     </row>
     <row r="181">
@@ -6363,7 +6363,7 @@
         <v>82003</v>
       </c>
       <c r="E181" t="n">
-        <v>1.06231371535778</v>
+        <v>0.779580911467713</v>
       </c>
     </row>
     <row r="182">
@@ -6380,7 +6380,7 @@
         <v>463354</v>
       </c>
       <c r="E182" t="n">
-        <v>1.78611251326475</v>
+        <v>1.56194050113336</v>
       </c>
     </row>
     <row r="183">
@@ -6397,7 +6397,7 @@
         <v>92319</v>
       </c>
       <c r="E183" t="n">
-        <v>1.39759699635608</v>
+        <v>1.19649729316998</v>
       </c>
     </row>
     <row r="184">
@@ -6414,7 +6414,7 @@
         <v>140323</v>
       </c>
       <c r="E184" t="n">
-        <v>1.42718138152077</v>
+        <v>1.20897034427386</v>
       </c>
     </row>
     <row r="185">
@@ -6431,7 +6431,7 @@
         <v>280258</v>
       </c>
       <c r="E185" t="n">
-        <v>1.45894944533171</v>
+        <v>1.25752934830808</v>
       </c>
     </row>
     <row r="186">
@@ -6448,7 +6448,7 @@
         <v>111660</v>
       </c>
       <c r="E186" t="n">
-        <v>1.06523042426013</v>
+        <v>0.768574437112295</v>
       </c>
     </row>
     <row r="187">
@@ -6465,7 +6465,7 @@
         <v>88394</v>
       </c>
       <c r="E187" t="n">
-        <v>1.1617447496893</v>
+        <v>0.877517691581032</v>
       </c>
     </row>
     <row r="188">
@@ -6482,7 +6482,7 @@
         <v>170703</v>
       </c>
       <c r="E188" t="n">
-        <v>1.35305126066462</v>
+        <v>1.14358282270204</v>
       </c>
     </row>
     <row r="189">
@@ -6499,7 +6499,7 @@
         <v>93922</v>
       </c>
       <c r="E189" t="n">
-        <v>1.29022181398287</v>
+        <v>1.08290376154049</v>
       </c>
     </row>
     <row r="190">
@@ -6516,7 +6516,7 @@
         <v>110464</v>
       </c>
       <c r="E190" t="n">
-        <v>1.4875048880171</v>
+        <v>1.23434972099596</v>
       </c>
     </row>
     <row r="191">
@@ -6533,7 +6533,7 @@
         <v>189331</v>
       </c>
       <c r="E191" t="n">
-        <v>1.36519778735147</v>
+        <v>1.11353955612887</v>
       </c>
     </row>
     <row r="192">
@@ -6550,7 +6550,7 @@
         <v>263252</v>
       </c>
       <c r="E192" t="n">
-        <v>1.090677523926</v>
+        <v>0.837505867764136</v>
       </c>
     </row>
     <row r="193">
@@ -6567,7 +6567,7 @@
         <v>94313</v>
       </c>
       <c r="E193" t="n">
-        <v>1.5167574809427</v>
+        <v>1.31121636283885</v>
       </c>
     </row>
     <row r="194">
@@ -6584,7 +6584,7 @@
         <v>191039</v>
       </c>
       <c r="E194" t="n">
-        <v>1.41164221626498</v>
+        <v>1.2090962387536</v>
       </c>
     </row>
     <row r="195">
@@ -6601,7 +6601,7 @@
         <v>385423</v>
       </c>
       <c r="E195" t="n">
-        <v>1.42953874467701</v>
+        <v>1.22197632323827</v>
       </c>
     </row>
     <row r="196">
@@ -6618,7 +6618,7 @@
         <v>110219</v>
       </c>
       <c r="E196" t="n">
-        <v>1.34893643453175</v>
+        <v>1.10450010204915</v>
       </c>
     </row>
     <row r="197">
@@ -6635,7 +6635,7 @@
         <v>71593</v>
       </c>
       <c r="E197" t="n">
-        <v>2.03295072213179</v>
+        <v>1.80686090360917</v>
       </c>
     </row>
     <row r="198">
@@ -6652,7 +6652,7 @@
         <v>125929</v>
       </c>
       <c r="E198" t="n">
-        <v>1.38054120732715</v>
+        <v>1.17554150138376</v>
       </c>
     </row>
     <row r="199">
@@ -6669,7 +6669,7 @@
         <v>486299</v>
       </c>
       <c r="E199" t="n">
-        <v>1.50957908394944</v>
+        <v>1.3079135674007</v>
       </c>
     </row>
     <row r="200">
@@ -6686,7 +6686,7 @@
         <v>195678</v>
       </c>
       <c r="E200" t="n">
-        <v>1.75168803307139</v>
+        <v>1.52642551558502</v>
       </c>
     </row>
     <row r="201">
@@ -6703,7 +6703,7 @@
         <v>194058</v>
       </c>
       <c r="E201" t="n">
-        <v>1.62769301375525</v>
+        <v>1.40240286864115</v>
       </c>
     </row>
     <row r="202">
@@ -6720,7 +6720,7 @@
         <v>84359</v>
       </c>
       <c r="E202" t="n">
-        <v>0.995723542402974</v>
+        <v>0.83170271253758</v>
       </c>
     </row>
     <row r="203">
@@ -6737,7 +6737,7 @@
         <v>94792</v>
       </c>
       <c r="E203" t="n">
-        <v>1.15558870334745</v>
+        <v>0.977458483556036</v>
       </c>
     </row>
     <row r="204">
@@ -6754,7 +6754,7 @@
         <v>106742</v>
       </c>
       <c r="E204" t="n">
-        <v>1.15872158878799</v>
+        <v>0.987087653304076</v>
       </c>
     </row>
     <row r="205">
@@ -6771,7 +6771,7 @@
         <v>146449</v>
       </c>
       <c r="E205" t="n">
-        <v>1.62838565405237</v>
+        <v>1.41347857421911</v>
       </c>
     </row>
     <row r="206">
@@ -6788,7 +6788,7 @@
         <v>75675</v>
       </c>
       <c r="E206" t="n">
-        <v>1.44922001700672</v>
+        <v>1.19593580125579</v>
       </c>
     </row>
     <row r="207">
@@ -6805,7 +6805,7 @@
         <v>226567</v>
       </c>
       <c r="E207" t="n">
-        <v>0.742073595084954</v>
+        <v>0.470477084163408</v>
       </c>
     </row>
     <row r="208">
@@ -6822,7 +6822,7 @@
         <v>93585</v>
       </c>
       <c r="E208" t="n">
-        <v>1.28570295734063</v>
+        <v>1.01751804730371</v>
       </c>
     </row>
     <row r="209">
@@ -6839,7 +6839,7 @@
         <v>75097</v>
       </c>
       <c r="E209" t="n">
-        <v>1.10024088020932</v>
+        <v>0.912735687070982</v>
       </c>
     </row>
     <row r="210">
@@ -6856,7 +6856,7 @@
         <v>202548</v>
       </c>
       <c r="E210" t="n">
-        <v>1.04847863106521</v>
+        <v>0.803528022358279</v>
       </c>
     </row>
     <row r="211">
@@ -6873,7 +6873,7 @@
         <v>77941</v>
       </c>
       <c r="E211" t="n">
-        <v>0.861269400158012</v>
+        <v>0.58165620023728</v>
       </c>
     </row>
     <row r="212">
@@ -6890,7 +6890,7 @@
         <v>72155</v>
       </c>
       <c r="E212" t="n">
-        <v>0.6934889590784</v>
+        <v>0.466843339327101</v>
       </c>
     </row>
     <row r="213">
@@ -6907,7 +6907,7 @@
         <v>87426</v>
       </c>
       <c r="E213" t="n">
-        <v>1.11850017747415</v>
+        <v>0.868048209550697</v>
       </c>
     </row>
     <row r="214">
@@ -6924,7 +6924,7 @@
         <v>2716462</v>
       </c>
       <c r="E214" t="n">
-        <v>1.50540528845889</v>
+        <v>1.29461221320365</v>
       </c>
     </row>
     <row r="215">
@@ -6941,7 +6941,7 @@
         <v>68645</v>
       </c>
       <c r="E215" t="n">
-        <v>1.4497026308335</v>
+        <v>1.18180312444056</v>
       </c>
     </row>
     <row r="216">
@@ -6958,7 +6958,7 @@
         <v>114459</v>
       </c>
       <c r="E216" t="n">
-        <v>1.01571285924001</v>
+        <v>0.769387990970089</v>
       </c>
     </row>
     <row r="217">
@@ -6975,7 +6975,7 @@
         <v>74752</v>
       </c>
       <c r="E217" t="n">
-        <v>1.22018969701311</v>
+        <v>1.04527186210414</v>
       </c>
     </row>
     <row r="218">
@@ -6992,7 +6992,7 @@
         <v>147150</v>
       </c>
       <c r="E218" t="n">
-        <v>0.852800317173413</v>
+        <v>0.588970352639841</v>
       </c>
     </row>
     <row r="219">
@@ -7009,7 +7009,7 @@
         <v>148584</v>
       </c>
       <c r="E219" t="n">
-        <v>0.499688641524023</v>
+        <v>0.270584365502345</v>
       </c>
     </row>
     <row r="220">
@@ -7026,7 +7026,7 @@
         <v>68610</v>
       </c>
       <c r="E220" t="n">
-        <v>1.17198633356456</v>
+        <v>0.979761842145901</v>
       </c>
     </row>
     <row r="221">
@@ -7043,7 +7043,7 @@
         <v>115637</v>
       </c>
       <c r="E221" t="n">
-        <v>1.33288704487037</v>
+        <v>1.07776514784001</v>
       </c>
     </row>
     <row r="222">
@@ -7060,7 +7060,7 @@
         <v>148287</v>
       </c>
       <c r="E222" t="n">
-        <v>1.39382380702162</v>
+        <v>1.12827033377533</v>
       </c>
     </row>
     <row r="223">
@@ -7077,7 +7077,7 @@
         <v>73118</v>
       </c>
       <c r="E223" t="n">
-        <v>1.15091910195155</v>
+        <v>0.97192006474361</v>
       </c>
     </row>
     <row r="224">
@@ -7094,7 +7094,7 @@
         <v>114663</v>
       </c>
       <c r="E224" t="n">
-        <v>1.05985312829826</v>
+        <v>0.79843510371928</v>
       </c>
     </row>
     <row r="225">
@@ -7111,7 +7111,7 @@
         <v>88805</v>
       </c>
       <c r="E225" t="n">
-        <v>1.26447801828524</v>
+        <v>0.978136325068317</v>
       </c>
     </row>
     <row r="226">
@@ -7128,7 +7128,7 @@
         <v>85551</v>
       </c>
       <c r="E226" t="n">
-        <v>1.12238353305982</v>
+        <v>0.871922347135474</v>
       </c>
     </row>
     <row r="227">
@@ -7145,7 +7145,7 @@
         <v>93148</v>
       </c>
       <c r="E227" t="n">
-        <v>0.474592651474732</v>
+        <v>0.239886694773008</v>
       </c>
     </row>
     <row r="228">
@@ -7162,7 +7162,7 @@
         <v>117940</v>
       </c>
       <c r="E228" t="n">
-        <v>1.25646534438382</v>
+        <v>0.974726375244123</v>
       </c>
     </row>
     <row r="229">
@@ -7179,7 +7179,7 @@
         <v>90907</v>
       </c>
       <c r="E229" t="n">
-        <v>0.355235372395939</v>
+        <v>0.12873557217032</v>
       </c>
     </row>
     <row r="230">
@@ -7196,7 +7196,7 @@
         <v>254796</v>
       </c>
       <c r="E230" t="n">
-        <v>1.06103602053968</v>
+        <v>0.790045849732919</v>
       </c>
     </row>
     <row r="231">
@@ -7213,7 +7213,7 @@
         <v>76627</v>
       </c>
       <c r="E231" t="n">
-        <v>1.62290513952123</v>
+        <v>1.37039157817145</v>
       </c>
     </row>
     <row r="232">
@@ -7230,7 +7230,7 @@
         <v>857386</v>
       </c>
       <c r="E232" t="n">
-        <v>1.44984174743013</v>
+        <v>1.21876152863774</v>
       </c>
     </row>
     <row r="233">
@@ -7247,7 +7247,7 @@
         <v>71225</v>
       </c>
       <c r="E233" t="n">
-        <v>1.20340102440273</v>
+        <v>0.930190838649605</v>
       </c>
     </row>
     <row r="234">
@@ -7264,7 +7264,7 @@
         <v>68450</v>
       </c>
       <c r="E234" t="n">
-        <v>1.30776438086963</v>
+        <v>1.0210205370546</v>
       </c>
     </row>
     <row r="235">
@@ -7281,7 +7281,7 @@
         <v>96143</v>
       </c>
       <c r="E235" t="n">
-        <v>1.39173084809733</v>
+        <v>1.11377613126035</v>
       </c>
     </row>
     <row r="236">
@@ -7298,7 +7298,7 @@
         <v>132240</v>
       </c>
       <c r="E236" t="n">
-        <v>0.696512467618132</v>
+        <v>0.437395563179428</v>
       </c>
     </row>
     <row r="237">
@@ -7315,7 +7315,7 @@
         <v>102314</v>
       </c>
       <c r="E237" t="n">
-        <v>0.904296478208783</v>
+        <v>0.604018238576517</v>
       </c>
     </row>
     <row r="238">
@@ -7332,7 +7332,7 @@
         <v>217508</v>
       </c>
       <c r="E238" t="n">
-        <v>0.95620063154014</v>
+        <v>0.657721746802143</v>
       </c>
     </row>
     <row r="239">
@@ -7349,7 +7349,7 @@
         <v>75788</v>
       </c>
       <c r="E239" t="n">
-        <v>0.892662564212475</v>
+        <v>0.646537282105886</v>
       </c>
     </row>
     <row r="240">
@@ -7366,7 +7366,7 @@
         <v>84034</v>
       </c>
       <c r="E240" t="n">
-        <v>1.19358143550778</v>
+        <v>0.929494156522195</v>
       </c>
     </row>
     <row r="241">
@@ -7383,7 +7383,7 @@
         <v>67588</v>
       </c>
       <c r="E241" t="n">
-        <v>1.05727146226572</v>
+        <v>0.786184217399848</v>
       </c>
     </row>
     <row r="242">
@@ -7400,7 +7400,7 @@
         <v>155031</v>
       </c>
       <c r="E242" t="n">
-        <v>1.55391281283417</v>
+        <v>1.31487549550253</v>
       </c>
     </row>
     <row r="243">
@@ -7417,7 +7417,7 @@
         <v>95000</v>
       </c>
       <c r="E243" t="n">
-        <v>0.922789978832894</v>
+        <v>0.680735142069566</v>
       </c>
     </row>
     <row r="244">
@@ -7434,7 +7434,7 @@
         <v>137500</v>
       </c>
       <c r="E244" t="n">
-        <v>0.558471327577789</v>
+        <v>0.321695632171425</v>
       </c>
     </row>
     <row r="245">
@@ -7451,7 +7451,7 @@
         <v>191263</v>
       </c>
       <c r="E245" t="n">
-        <v>0.551889870575479</v>
+        <v>0.318009149426983</v>
       </c>
     </row>
     <row r="246">
@@ -7468,7 +7468,7 @@
         <v>126588</v>
       </c>
       <c r="E246" t="n">
-        <v>1.10954691874741</v>
+        <v>0.831076413102344</v>
       </c>
     </row>
     <row r="247">
@@ -7485,7 +7485,7 @@
         <v>390599</v>
       </c>
       <c r="E247" t="n">
-        <v>1.06995889309633</v>
+        <v>0.801980011025166</v>
       </c>
     </row>
     <row r="248">
@@ -7502,7 +7502,7 @@
         <v>321959</v>
       </c>
       <c r="E248" t="n">
-        <v>1.17774297387264</v>
+        <v>0.91908825395259</v>
       </c>
     </row>
     <row r="249">
@@ -7519,7 +7519,7 @@
         <v>621337</v>
       </c>
       <c r="E249" t="n">
-        <v>1.31586943247167</v>
+        <v>1.04257638147396</v>
       </c>
     </row>
     <row r="250">
@@ -7536,7 +7536,7 @@
         <v>225370</v>
       </c>
       <c r="E250" t="n">
-        <v>1.73192549983554</v>
+        <v>1.50670343624663</v>
       </c>
     </row>
     <row r="251">
@@ -7553,7 +7553,7 @@
         <v>67464</v>
       </c>
       <c r="E251" t="n">
-        <v>1.5583635099306</v>
+        <v>1.33579177299786</v>
       </c>
     </row>
     <row r="252">
@@ -7570,7 +7570,7 @@
         <v>126847</v>
       </c>
       <c r="E252" t="n">
-        <v>1.30658749020246</v>
+        <v>1.05141399587725</v>
       </c>
     </row>
     <row r="253">
@@ -7587,7 +7587,7 @@
         <v>77125</v>
       </c>
       <c r="E253" t="n">
-        <v>1.58056025705363</v>
+        <v>1.31974178273556</v>
       </c>
     </row>
     <row r="254">
@@ -7604,7 +7604,7 @@
         <v>393292</v>
       </c>
       <c r="E254" t="n">
-        <v>1.7431429621591</v>
+        <v>1.52258196802396</v>
       </c>
     </row>
     <row r="255">
@@ -7621,7 +7621,7 @@
         <v>191715</v>
       </c>
       <c r="E255" t="n">
-        <v>1.80546240805097</v>
+        <v>1.56114007212997</v>
       </c>
     </row>
     <row r="256">
@@ -7638,7 +7638,7 @@
         <v>66878</v>
       </c>
       <c r="E256" t="n">
-        <v>0.838794555844279</v>
+        <v>0.572357361595032</v>
       </c>
     </row>
     <row r="257">
@@ -7655,7 +7655,7 @@
         <v>611648</v>
       </c>
       <c r="E257" t="n">
-        <v>1.76090326165792</v>
+        <v>1.5421496999942</v>
       </c>
     </row>
     <row r="258">
@@ -7672,7 +7672,7 @@
         <v>683015</v>
       </c>
       <c r="E258" t="n">
-        <v>1.33064702253627</v>
+        <v>1.14314984911548</v>
       </c>
     </row>
     <row r="259">
@@ -7689,7 +7689,7 @@
         <v>95664</v>
       </c>
       <c r="E259" t="n">
-        <v>1.08857452421483</v>
+        <v>0.872742673084057</v>
       </c>
     </row>
     <row r="260">
@@ -7706,7 +7706,7 @@
         <v>113631</v>
       </c>
       <c r="E260" t="n">
-        <v>0.84903672887692</v>
+        <v>0.605409473188062</v>
       </c>
     </row>
     <row r="261">
@@ -7723,7 +7723,7 @@
         <v>89415</v>
       </c>
       <c r="E261" t="n">
-        <v>1.13632349376706</v>
+        <v>0.871724815841596</v>
       </c>
     </row>
     <row r="262">
@@ -7740,7 +7740,7 @@
         <v>111343</v>
       </c>
       <c r="E262" t="n">
-        <v>0.945940104873589</v>
+        <v>0.66597127553583</v>
       </c>
     </row>
     <row r="263">
@@ -7757,7 +7757,7 @@
         <v>94064</v>
       </c>
       <c r="E263" t="n">
-        <v>1.21046803101016</v>
+        <v>0.95694320268127</v>
       </c>
     </row>
     <row r="264">
@@ -7774,7 +7774,7 @@
         <v>95110</v>
       </c>
       <c r="E264" t="n">
-        <v>1.2223530405242</v>
+        <v>0.973702342728331</v>
       </c>
     </row>
     <row r="265">
@@ -7791,7 +7791,7 @@
         <v>88989</v>
       </c>
       <c r="E265" t="n">
-        <v>0.614745539399775</v>
+        <v>0.383864888160563</v>
       </c>
     </row>
     <row r="266">
@@ -7808,7 +7808,7 @@
         <v>94165</v>
       </c>
       <c r="E266" t="n">
-        <v>0.710372478929061</v>
+        <v>0.470408398260644</v>
       </c>
     </row>
     <row r="267">
@@ -7825,7 +7825,7 @@
         <v>81361</v>
       </c>
       <c r="E267" t="n">
-        <v>0.765669953266985</v>
+        <v>0.515798621747513</v>
       </c>
     </row>
     <row r="268">
@@ -7842,7 +7842,7 @@
         <v>154763</v>
       </c>
       <c r="E268" t="n">
-        <v>1.60829006665048</v>
+        <v>1.38870464079663</v>
       </c>
     </row>
     <row r="269">
@@ -7859,7 +7859,7 @@
         <v>185685</v>
       </c>
       <c r="E269" t="n">
-        <v>1.06057335441356</v>
+        <v>0.810540527222826</v>
       </c>
     </row>
     <row r="270">
@@ -7876,7 +7876,7 @@
         <v>121461</v>
       </c>
       <c r="E270" t="n">
-        <v>0.889515498792177</v>
+        <v>0.65696454053232</v>
       </c>
     </row>
     <row r="271">
@@ -7893,7 +7893,7 @@
         <v>94497</v>
       </c>
       <c r="E271" t="n">
-        <v>1.18230177689619</v>
+        <v>0.931374543812247</v>
       </c>
     </row>
     <row r="272">
@@ -7910,7 +7910,7 @@
         <v>673103</v>
       </c>
       <c r="E272" t="n">
-        <v>2.10822190095859</v>
+        <v>1.84765962684129</v>
       </c>
     </row>
     <row r="273">
@@ -7927,7 +7927,7 @@
         <v>81048</v>
       </c>
       <c r="E273" t="n">
-        <v>0.79690536349371</v>
+        <v>0.563592591719909</v>
       </c>
     </row>
     <row r="274">
@@ -7944,7 +7944,7 @@
         <v>198811</v>
       </c>
       <c r="E274" t="n">
-        <v>1.09584783924817</v>
+        <v>0.827531722155496</v>
       </c>
     </row>
     <row r="275">
@@ -7961,7 +7961,7 @@
         <v>75802</v>
       </c>
       <c r="E275" t="n">
-        <v>1.33037182214218</v>
+        <v>1.07243009793655</v>
       </c>
     </row>
     <row r="276">
@@ -7978,7 +7978,7 @@
         <v>115451</v>
       </c>
       <c r="E276" t="n">
-        <v>1.38413792520902</v>
+        <v>1.16457510377306</v>
       </c>
     </row>
     <row r="277">
@@ -7995,7 +7995,7 @@
         <v>94108</v>
       </c>
       <c r="E277" t="n">
-        <v>1.21027207904546</v>
+        <v>1.00160591046653</v>
       </c>
     </row>
     <row r="278">
@@ -8012,7 +8012,7 @@
         <v>74198</v>
       </c>
       <c r="E278" t="n">
-        <v>0.625143633644309</v>
+        <v>0.3974561657129</v>
       </c>
     </row>
     <row r="279">
@@ -8029,7 +8029,7 @@
         <v>73203</v>
       </c>
       <c r="E279" t="n">
-        <v>1.30668805975596</v>
+        <v>1.06865061481689</v>
       </c>
     </row>
     <row r="280">
@@ -8046,7 +8046,7 @@
         <v>132628</v>
       </c>
       <c r="E280" t="n">
-        <v>0.831557061127218</v>
+        <v>0.530544875463451</v>
       </c>
     </row>
     <row r="281">
@@ -8063,7 +8063,7 @@
         <v>83826</v>
       </c>
       <c r="E281" t="n">
-        <v>0.570152244169703</v>
+        <v>0.341302876046344</v>
       </c>
     </row>
     <row r="282">
@@ -8080,7 +8080,7 @@
         <v>135029</v>
       </c>
       <c r="E282" t="n">
-        <v>0.985956168015245</v>
+        <v>0.674118765954368</v>
       </c>
     </row>
     <row r="283">
@@ -8097,7 +8097,7 @@
         <v>81750</v>
       </c>
       <c r="E283" t="n">
-        <v>1.32503957717139</v>
+        <v>1.10969577882425</v>
       </c>
     </row>
     <row r="284">
@@ -8114,7 +8114,7 @@
         <v>75938</v>
       </c>
       <c r="E284" t="n">
-        <v>0.950043747556917</v>
+        <v>0.697632925272689</v>
       </c>
     </row>
     <row r="285">
@@ -8131,7 +8131,7 @@
         <v>85863</v>
       </c>
       <c r="E285" t="n">
-        <v>0.84585099758078</v>
+        <v>0.62986249595081</v>
       </c>
     </row>
     <row r="286">
@@ -8148,7 +8148,7 @@
         <v>80573</v>
       </c>
       <c r="E286" t="n">
-        <v>1.09199442659675</v>
+        <v>0.884039682992863</v>
       </c>
     </row>
     <row r="287">
@@ -8165,7 +8165,7 @@
         <v>86048</v>
       </c>
       <c r="E287" t="n">
-        <v>0.778435468829353</v>
+        <v>0.504185694651625</v>
       </c>
     </row>
     <row r="288">
@@ -8182,7 +8182,7 @@
         <v>422326</v>
       </c>
       <c r="E288" t="n">
-        <v>0.909043970963962</v>
+        <v>0.680974850361664</v>
       </c>
     </row>
     <row r="289">
@@ -8199,7 +8199,7 @@
         <v>78388</v>
       </c>
       <c r="E289" t="n">
-        <v>0.734283833887886</v>
+        <v>0.52849181347976</v>
       </c>
     </row>
     <row r="290">
@@ -8216,7 +8216,7 @@
         <v>115733</v>
       </c>
       <c r="E290" t="n">
-        <v>0.620885942812929</v>
+        <v>0.383815309569235</v>
       </c>
     </row>
     <row r="291">
@@ -8233,7 +8233,7 @@
         <v>306604</v>
       </c>
       <c r="E291" t="n">
-        <v>1.14040579549518</v>
+        <v>0.912000127384392</v>
       </c>
     </row>
     <row r="292">
@@ -8250,7 +8250,7 @@
         <v>71812</v>
       </c>
       <c r="E292" t="n">
-        <v>1.56922578013016</v>
+        <v>1.34172753602037</v>
       </c>
     </row>
     <row r="293">
@@ -8267,7 +8267,7 @@
         <v>167250</v>
       </c>
       <c r="E293" t="n">
-        <v>1.96903571270279</v>
+        <v>1.73487943812158</v>
       </c>
     </row>
     <row r="294">
@@ -8284,7 +8284,7 @@
         <v>121720</v>
       </c>
       <c r="E294" t="n">
-        <v>0.889021180684701</v>
+        <v>0.642850466803283</v>
       </c>
     </row>
     <row r="295">
@@ -8301,7 +8301,7 @@
         <v>117308</v>
       </c>
       <c r="E295" t="n">
-        <v>1.33716182840616</v>
+        <v>1.1090099713833</v>
       </c>
     </row>
     <row r="296">
@@ -8318,7 +8318,7 @@
         <v>488825</v>
       </c>
       <c r="E296" t="n">
-        <v>1.43142357508111</v>
+        <v>1.209812285299</v>
       </c>
     </row>
     <row r="297">
@@ -8335,7 +8335,7 @@
         <v>97101</v>
       </c>
       <c r="E297" t="n">
-        <v>1.11954097745782</v>
+        <v>0.919622307937498</v>
       </c>
     </row>
     <row r="298">
@@ -8352,7 +8352,7 @@
         <v>87578</v>
       </c>
       <c r="E298" t="n">
-        <v>0.526028094195581</v>
+        <v>0.27369720978175</v>
       </c>
     </row>
     <row r="299">
@@ -8369,7 +8369,7 @@
         <v>76643</v>
       </c>
       <c r="E299" t="n">
-        <v>1.17513652976913</v>
+        <v>0.901467098395963</v>
       </c>
     </row>
     <row r="300">
@@ -8386,7 +8386,7 @@
         <v>308626</v>
       </c>
       <c r="E300" t="n">
-        <v>1.61063507000449</v>
+        <v>1.38401916057952</v>
       </c>
     </row>
     <row r="301">
@@ -8403,7 +8403,7 @@
         <v>167376</v>
       </c>
       <c r="E301" t="n">
-        <v>1.15671466088563</v>
+        <v>0.887712541002778</v>
       </c>
     </row>
     <row r="302">
@@ -8420,7 +8420,7 @@
         <v>109642</v>
       </c>
       <c r="E302" t="n">
-        <v>0.818370326341453</v>
+        <v>0.55150333443826</v>
       </c>
     </row>
     <row r="303">
@@ -8437,7 +8437,7 @@
         <v>73338</v>
       </c>
       <c r="E303" t="n">
-        <v>0.818711845132304</v>
+        <v>0.581568660689979</v>
       </c>
     </row>
     <row r="304">
@@ -8454,7 +8454,7 @@
         <v>284734</v>
       </c>
       <c r="E304" t="n">
-        <v>0.872008208699857</v>
+        <v>0.622008672070224</v>
       </c>
     </row>
     <row r="305">
@@ -8471,7 +8471,7 @@
         <v>466903</v>
       </c>
       <c r="E305" t="n">
-        <v>0.987796150909091</v>
+        <v>0.72893697461532</v>
       </c>
     </row>
     <row r="306">
@@ -8488,7 +8488,7 @@
         <v>302535</v>
       </c>
       <c r="E306" t="n">
-        <v>1.29398898200187</v>
+        <v>1.10350572603441</v>
       </c>
     </row>
     <row r="307">
@@ -8505,7 +8505,7 @@
         <v>641708</v>
       </c>
       <c r="E307" t="n">
-        <v>1.39773326777426</v>
+        <v>1.19603039289652</v>
       </c>
     </row>
     <row r="308">
@@ -8522,7 +8522,7 @@
         <v>242949</v>
       </c>
       <c r="E308" t="n">
-        <v>1.46098646235926</v>
+        <v>1.27322256952923</v>
       </c>
     </row>
     <row r="309">
@@ -8539,7 +8539,7 @@
         <v>248860</v>
       </c>
       <c r="E309" t="n">
-        <v>1.25704583161272</v>
+        <v>1.06249520721745</v>
       </c>
     </row>
     <row r="310">
@@ -8556,7 +8556,7 @@
         <v>100878</v>
       </c>
       <c r="E310" t="n">
-        <v>1.29661789005907</v>
+        <v>1.10435543512216</v>
       </c>
     </row>
     <row r="311">
@@ -8573,7 +8573,7 @@
         <v>111194</v>
       </c>
       <c r="E311" t="n">
-        <v>0.81451503088216</v>
+        <v>0.518903184537876</v>
       </c>
     </row>
     <row r="312">
@@ -8590,7 +8590,7 @@
         <v>74534</v>
       </c>
       <c r="E312" t="n">
-        <v>1.8083569431177</v>
+        <v>1.53623008975214</v>
       </c>
     </row>
     <row r="313">
@@ -8607,7 +8607,7 @@
         <v>86615</v>
       </c>
       <c r="E313" t="n">
-        <v>1.27585089081666</v>
+        <v>1.08623994019386</v>
       </c>
     </row>
     <row r="314">
@@ -8624,7 +8624,7 @@
         <v>130222</v>
       </c>
       <c r="E314" t="n">
-        <v>1.67321979561451</v>
+        <v>1.46349959172163</v>
       </c>
     </row>
     <row r="315">
@@ -8641,7 +8641,7 @@
         <v>270750</v>
       </c>
       <c r="E315" t="n">
-        <v>1.43767800026117</v>
+        <v>1.24048115777864</v>
       </c>
     </row>
     <row r="316">
@@ -8658,7 +8658,7 @@
         <v>285156</v>
       </c>
       <c r="E316" t="n">
-        <v>1.77166634431601</v>
+        <v>1.54453410232545</v>
       </c>
     </row>
     <row r="317">
@@ -8675,7 +8675,7 @@
         <v>71245</v>
       </c>
       <c r="E317" t="n">
-        <v>1.73831302086865</v>
+        <v>1.5170599761706</v>
       </c>
     </row>
     <row r="318">
@@ -8692,7 +8692,7 @@
         <v>148678</v>
       </c>
       <c r="E318" t="n">
-        <v>1.71252944652933</v>
+        <v>1.4857858284021</v>
       </c>
     </row>
     <row r="319">
@@ -8709,7 +8709,7 @@
         <v>84971</v>
       </c>
       <c r="E319" t="n">
-        <v>1.67344378347923</v>
+        <v>1.39715980903408</v>
       </c>
     </row>
     <row r="320">
@@ -8726,7 +8726,7 @@
         <v>70409</v>
       </c>
       <c r="E320" t="n">
-        <v>1.58093533809566</v>
+        <v>1.3528221051367</v>
       </c>
     </row>
     <row r="321">
@@ -8743,7 +8743,7 @@
         <v>558558</v>
       </c>
       <c r="E321" t="n">
-        <v>1.45267345447967</v>
+        <v>1.26674047036244</v>
       </c>
     </row>
     <row r="322">
@@ -8760,7 +8760,7 @@
         <v>101706</v>
       </c>
       <c r="E322" t="n">
-        <v>1.58382539294482</v>
+        <v>1.38496089320018</v>
       </c>
     </row>
     <row r="323">
@@ -8777,7 +8777,7 @@
         <v>96168</v>
       </c>
       <c r="E323" t="n">
-        <v>1.02286306002489</v>
+        <v>0.772239560928173</v>
       </c>
     </row>
     <row r="324">
@@ -8794,7 +8794,7 @@
         <v>83763</v>
       </c>
       <c r="E324" t="n">
-        <v>1.22757391548335</v>
+        <v>1.02417498968392</v>
       </c>
     </row>
     <row r="325">
@@ -8811,7 +8811,7 @@
         <v>98252</v>
       </c>
       <c r="E325" t="n">
-        <v>1.10406882321885</v>
+        <v>0.866056179753887</v>
       </c>
     </row>
     <row r="326">
@@ -8828,7 +8828,7 @@
         <v>258592</v>
       </c>
       <c r="E326" t="n">
-        <v>1.26439117758276</v>
+        <v>0.989305963924322</v>
       </c>
     </row>
     <row r="327">
@@ -8845,7 +8845,7 @@
         <v>68702</v>
       </c>
       <c r="E327" t="n">
-        <v>1.51445157411922</v>
+        <v>1.28245648948689</v>
       </c>
     </row>
     <row r="328">
@@ -8862,7 +8862,7 @@
         <v>79956</v>
       </c>
       <c r="E328" t="n">
-        <v>1.10829863612169</v>
+        <v>0.875396780957251</v>
       </c>
     </row>
     <row r="329">
@@ -8879,7 +8879,7 @@
         <v>8622698</v>
       </c>
       <c r="E329" t="n">
-        <v>1.41232580413315</v>
+        <v>1.22711748915681</v>
       </c>
     </row>
     <row r="330">
@@ -8896,7 +8896,7 @@
         <v>208049</v>
       </c>
       <c r="E330" t="n">
-        <v>1.46801274111566</v>
+        <v>1.21163199615572</v>
       </c>
     </row>
     <row r="331">
@@ -8913,7 +8913,7 @@
         <v>65626</v>
       </c>
       <c r="E331" t="n">
-        <v>0.868323353266636</v>
+        <v>0.598484652500544</v>
       </c>
     </row>
     <row r="332">
@@ -8930,7 +8930,7 @@
         <v>143398</v>
       </c>
       <c r="E332" t="n">
-        <v>1.15254708452658</v>
+        <v>0.891532348988298</v>
       </c>
     </row>
     <row r="333">
@@ -8947,7 +8947,7 @@
         <v>202008</v>
       </c>
       <c r="E333" t="n">
-        <v>1.16983104941178</v>
+        <v>0.933272869801166</v>
       </c>
     </row>
     <row r="334">
@@ -8964,7 +8964,7 @@
         <v>91916</v>
       </c>
       <c r="E334" t="n">
-        <v>0.996503385997019</v>
+        <v>0.75302245589423</v>
       </c>
     </row>
     <row r="335">
@@ -8981,7 +8981,7 @@
         <v>166032</v>
       </c>
       <c r="E335" t="n">
-        <v>0.711350655463732</v>
+        <v>0.461780152994395</v>
       </c>
     </row>
     <row r="336">
@@ -8998,7 +8998,7 @@
         <v>859052</v>
       </c>
       <c r="E336" t="n">
-        <v>1.26603590781159</v>
+        <v>1.02840795922631</v>
       </c>
     </row>
     <row r="337">
@@ -9015,7 +9015,7 @@
         <v>92072</v>
       </c>
       <c r="E337" t="n">
-        <v>0.990799089482715</v>
+        <v>0.739714556155685</v>
       </c>
     </row>
     <row r="338">
@@ -9032,7 +9032,7 @@
         <v>267932</v>
       </c>
       <c r="E338" t="n">
-        <v>1.44532078518977</v>
+        <v>1.25305909836483</v>
       </c>
     </row>
     <row r="339">
@@ -9049,7 +9049,7 @@
         <v>209913</v>
       </c>
       <c r="E339" t="n">
-        <v>1.61842309208707</v>
+        <v>1.40589507251367</v>
       </c>
     </row>
     <row r="340">
@@ -9066,7 +9066,7 @@
         <v>76606</v>
       </c>
       <c r="E340" t="n">
-        <v>1.46887947228466</v>
+        <v>1.24734320226539</v>
       </c>
     </row>
     <row r="341">
@@ -9083,7 +9083,7 @@
         <v>290201</v>
       </c>
       <c r="E341" t="n">
-        <v>1.47531379721557</v>
+        <v>1.27580265675015</v>
       </c>
     </row>
     <row r="342">
@@ -9100,7 +9100,7 @@
         <v>92171</v>
       </c>
       <c r="E342" t="n">
-        <v>1.38275075810983</v>
+        <v>1.18186788286678</v>
       </c>
     </row>
     <row r="343">
@@ -9117,7 +9117,7 @@
         <v>111213</v>
       </c>
       <c r="E343" t="n">
-        <v>1.51208266392384</v>
+        <v>1.30657475369821</v>
       </c>
     </row>
     <row r="344">
@@ -9134,7 +9134,7 @@
         <v>72448</v>
       </c>
       <c r="E344" t="n">
-        <v>1.27687588157466</v>
+        <v>1.0102078527349</v>
       </c>
     </row>
     <row r="345">
@@ -9151,7 +9151,7 @@
         <v>464972</v>
       </c>
       <c r="E345" t="n">
-        <v>0.889164630412907</v>
+        <v>0.625857496054665</v>
       </c>
     </row>
     <row r="346">
@@ -9168,7 +9168,7 @@
         <v>119048</v>
       </c>
       <c r="E346" t="n">
-        <v>1.19860455728598</v>
+        <v>0.958587117474011</v>
       </c>
     </row>
     <row r="347">
@@ -9185,7 +9185,7 @@
         <v>244592</v>
       </c>
       <c r="E347" t="n">
-        <v>1.5192160517363</v>
+        <v>1.30272896984594</v>
       </c>
     </row>
     <row r="348">
@@ -9202,7 +9202,7 @@
         <v>123590</v>
       </c>
       <c r="E348" t="n">
-        <v>0.868857545896654</v>
+        <v>0.61135905446639</v>
       </c>
     </row>
     <row r="349">
@@ -9219,7 +9219,7 @@
         <v>197849</v>
       </c>
       <c r="E349" t="n">
-        <v>1.19525393886475</v>
+        <v>0.914815468901234</v>
       </c>
     </row>
     <row r="350">
@@ -9236,7 +9236,7 @@
         <v>70893</v>
       </c>
       <c r="E350" t="n">
-        <v>1.24200013462617</v>
+        <v>0.947529158952093</v>
       </c>
     </row>
     <row r="351">
@@ -9253,7 +9253,7 @@
         <v>301305</v>
       </c>
       <c r="E351" t="n">
-        <v>1.58268600850295</v>
+        <v>1.349253968067</v>
       </c>
     </row>
     <row r="352">
@@ -9270,7 +9270,7 @@
         <v>385552</v>
       </c>
       <c r="E352" t="n">
-        <v>1.76723231316894</v>
+        <v>1.5183968614331</v>
       </c>
     </row>
     <row r="353">
@@ -9287,7 +9287,7 @@
         <v>881901</v>
       </c>
       <c r="E353" t="n">
-        <v>1.36647176203598</v>
+        <v>1.14327522838538</v>
       </c>
     </row>
     <row r="354">
@@ -9304,7 +9304,7 @@
         <v>140379</v>
       </c>
       <c r="E354" t="n">
-        <v>1.64165525031123</v>
+        <v>1.37893928906397</v>
       </c>
     </row>
     <row r="355">
@@ -9321,7 +9321,7 @@
         <v>79159</v>
       </c>
       <c r="E355" t="n">
-        <v>1.20356225747229</v>
+        <v>0.986134009452198</v>
       </c>
     </row>
     <row r="356">
@@ -9338,7 +9338,7 @@
         <v>276494</v>
       </c>
       <c r="E356" t="n">
-        <v>1.52180287253188</v>
+        <v>1.2702915861667</v>
       </c>
     </row>
     <row r="357">
@@ -9355,7 +9355,7 @@
         <v>64585</v>
       </c>
       <c r="E357" t="n">
-        <v>1.68003525787135</v>
+        <v>1.38128544761517</v>
       </c>
     </row>
     <row r="358">
@@ -9372,7 +9372,7 @@
         <v>110468</v>
       </c>
       <c r="E358" t="n">
-        <v>1.03780023905717</v>
+        <v>0.789630920488238</v>
       </c>
     </row>
     <row r="359">
@@ -9389,7 +9389,7 @@
         <v>91936</v>
       </c>
       <c r="E359" t="n">
-        <v>1.23606163651533</v>
+        <v>1.03618116227058</v>
       </c>
     </row>
     <row r="360">
@@ -9406,7 +9406,7 @@
         <v>93717</v>
       </c>
       <c r="E360" t="n">
-        <v>1.39282794630744</v>
+        <v>1.16991600987425</v>
       </c>
     </row>
     <row r="361">
@@ -9423,7 +9423,7 @@
         <v>122842</v>
       </c>
       <c r="E361" t="n">
-        <v>0.867123688160765</v>
+        <v>0.578789680274524</v>
       </c>
     </row>
     <row r="362">
@@ -9440,7 +9440,7 @@
         <v>643574</v>
       </c>
       <c r="E362" t="n">
-        <v>1.38221649162974</v>
+        <v>1.15364274321246</v>
       </c>
     </row>
     <row r="363">
@@ -9457,7 +9457,7 @@
         <v>402227</v>
       </c>
       <c r="E363" t="n">
-        <v>1.31543369674135</v>
+        <v>1.05931277311388</v>
       </c>
     </row>
     <row r="364">
@@ -9474,7 +9474,7 @@
         <v>97529</v>
       </c>
       <c r="E364" t="n">
-        <v>0.873738102197988</v>
+        <v>0.649497663403562</v>
       </c>
     </row>
     <row r="365">
@@ -9491,7 +9491,7 @@
         <v>94527</v>
       </c>
       <c r="E365" t="n">
-        <v>0.759066523897514</v>
+        <v>0.507493045082264</v>
       </c>
     </row>
     <row r="366">
@@ -9508,7 +9508,7 @@
         <v>168909</v>
       </c>
       <c r="E366" t="n">
-        <v>1.11705189241414</v>
+        <v>0.884926497703594</v>
       </c>
     </row>
     <row r="367">
@@ -9525,7 +9525,7 @@
         <v>111039</v>
       </c>
       <c r="E367" t="n">
-        <v>1.23647738331533</v>
+        <v>1.03632613094955</v>
       </c>
     </row>
     <row r="368">
@@ -9542,7 +9542,7 @@
         <v>106903</v>
       </c>
       <c r="E368" t="n">
-        <v>0.777896986381798</v>
+        <v>0.542080226555057</v>
       </c>
     </row>
     <row r="369">
@@ -9559,7 +9559,7 @@
         <v>81777</v>
       </c>
       <c r="E369" t="n">
-        <v>1.21249022032075</v>
+        <v>0.970220147734126</v>
       </c>
     </row>
     <row r="370">
@@ -9576,7 +9576,7 @@
         <v>648121</v>
       </c>
       <c r="E370" t="n">
-        <v>1.10849159092367</v>
+        <v>0.913938412022471</v>
       </c>
     </row>
     <row r="371">
@@ -9593,7 +9593,7 @@
         <v>169790</v>
       </c>
       <c r="E371" t="n">
-        <v>1.25496974209315</v>
+        <v>1.03481818565157</v>
       </c>
     </row>
     <row r="372">
@@ -9610,7 +9610,7 @@
         <v>121278</v>
       </c>
       <c r="E372" t="n">
-        <v>1.50965815885223</v>
+        <v>1.22853138775075</v>
       </c>
     </row>
     <row r="373">
@@ -9627,7 +9627,7 @@
         <v>76469</v>
       </c>
       <c r="E373" t="n">
-        <v>1.27129545696741</v>
+        <v>1.01379927669873</v>
       </c>
     </row>
     <row r="374">
@@ -9644,7 +9644,7 @@
         <v>97369</v>
       </c>
       <c r="E374" t="n">
-        <v>1.11732346531436</v>
+        <v>0.832792897960089</v>
       </c>
     </row>
     <row r="375">
@@ -9661,7 +9661,7 @@
         <v>1580863</v>
       </c>
       <c r="E375" t="n">
-        <v>1.6033523201058</v>
+        <v>1.38431839932454</v>
       </c>
     </row>
     <row r="376">
@@ -9678,7 +9678,7 @@
         <v>302414</v>
       </c>
       <c r="E376" t="n">
-        <v>1.05462669833867</v>
+        <v>0.767806411363658</v>
       </c>
     </row>
     <row r="377">
@@ -9695,7 +9695,7 @@
         <v>88418</v>
       </c>
       <c r="E377" t="n">
-        <v>1.66094258409622</v>
+        <v>1.38229973311988</v>
       </c>
     </row>
     <row r="378">
@@ -9712,7 +9712,7 @@
         <v>77597</v>
       </c>
       <c r="E378" t="n">
-        <v>1.10825203001214</v>
+        <v>0.823057867285307</v>
       </c>
     </row>
     <row r="379">
@@ -9729,7 +9729,7 @@
         <v>81192</v>
       </c>
       <c r="E379" t="n">
-        <v>1.32269140379397</v>
+        <v>1.10958982630288</v>
       </c>
     </row>
     <row r="380">
@@ -9746,7 +9746,7 @@
         <v>72006</v>
       </c>
       <c r="E380" t="n">
-        <v>1.49301771687117</v>
+        <v>1.27955941002281</v>
       </c>
     </row>
     <row r="381">
@@ -9763,7 +9763,7 @@
         <v>180388</v>
       </c>
       <c r="E381" t="n">
-        <v>1.47099754484941</v>
+        <v>1.26046691883571</v>
       </c>
     </row>
     <row r="382">
@@ -9780,7 +9780,7 @@
         <v>80873</v>
       </c>
       <c r="E382" t="n">
-        <v>0.878653615818314</v>
+        <v>0.590818534023699</v>
       </c>
     </row>
     <row r="383">
@@ -9797,7 +9797,7 @@
         <v>139906</v>
       </c>
       <c r="E383" t="n">
-        <v>1.17349755960326</v>
+        <v>0.931807158562571</v>
       </c>
     </row>
     <row r="384">
@@ -9814,7 +9814,7 @@
         <v>133578</v>
       </c>
       <c r="E384" t="n">
-        <v>1.34910616217651</v>
+        <v>1.09370289480366</v>
       </c>
     </row>
     <row r="385">
@@ -9831,7 +9831,7 @@
         <v>112742</v>
       </c>
       <c r="E385" t="n">
-        <v>1.47183470290747</v>
+        <v>1.21610874922504</v>
       </c>
     </row>
     <row r="386">
@@ -9848,7 +9848,7 @@
         <v>73064</v>
       </c>
       <c r="E386" t="n">
-        <v>1.10092139055381</v>
+        <v>0.843221501965534</v>
       </c>
     </row>
     <row r="387">
@@ -9865,7 +9865,7 @@
         <v>74418</v>
       </c>
       <c r="E387" t="n">
-        <v>0.956838027282782</v>
+        <v>0.659958057253564</v>
       </c>
     </row>
     <row r="388">
@@ -9882,7 +9882,7 @@
         <v>176898</v>
       </c>
       <c r="E388" t="n">
-        <v>0.830103807681679</v>
+        <v>0.577663719265824</v>
       </c>
     </row>
     <row r="389">
@@ -9899,7 +9899,7 @@
         <v>179130</v>
       </c>
       <c r="E389" t="n">
-        <v>1.44737992292915</v>
+        <v>1.18259745844037</v>
       </c>
     </row>
     <row r="390">
@@ -9916,7 +9916,7 @@
         <v>153210</v>
       </c>
       <c r="E390" t="n">
-        <v>1.23220700314081</v>
+        <v>0.971768843768279</v>
       </c>
     </row>
     <row r="391">
@@ -9933,7 +9933,7 @@
         <v>187344</v>
       </c>
       <c r="E391" t="n">
-        <v>1.01041630829449</v>
+        <v>0.730256920325564</v>
       </c>
     </row>
     <row r="392">
@@ -9950,7 +9950,7 @@
         <v>652231</v>
       </c>
       <c r="E392" t="n">
-        <v>1.84331388981209</v>
+        <v>1.60594223273894</v>
       </c>
     </row>
     <row r="393">
@@ -9967,7 +9967,7 @@
         <v>136372</v>
       </c>
       <c r="E393" t="n">
-        <v>0.943534020123822</v>
+        <v>0.654166249420924</v>
       </c>
     </row>
     <row r="394">
@@ -9984,7 +9984,7 @@
         <v>665967</v>
       </c>
       <c r="E394" t="n">
-        <v>1.38319100016076</v>
+        <v>1.16493407815801</v>
       </c>
     </row>
     <row r="395">
@@ -10001,7 +10001,7 @@
         <v>123304</v>
       </c>
       <c r="E395" t="n">
-        <v>1.32911722929503</v>
+        <v>1.05863216266065</v>
       </c>
     </row>
     <row r="396">
@@ -10018,7 +10018,7 @@
         <v>100679</v>
       </c>
       <c r="E396" t="n">
-        <v>0.445474901526632</v>
+        <v>0.214521916002403</v>
       </c>
     </row>
     <row r="397">
@@ -10035,7 +10035,7 @@
         <v>200558</v>
       </c>
       <c r="E397" t="n">
-        <v>1.37838109133272</v>
+        <v>1.14451941836151</v>
       </c>
     </row>
     <row r="398">
@@ -10052,7 +10052,7 @@
         <v>396407</v>
       </c>
       <c r="E398" t="n">
-        <v>1.26431151324007</v>
+        <v>1.02178685627373</v>
       </c>
     </row>
     <row r="399">
@@ -10069,7 +10069,7 @@
         <v>950714</v>
       </c>
       <c r="E399" t="n">
-        <v>1.09962322776414</v>
+        <v>0.876925207730365</v>
       </c>
     </row>
     <row r="400">
@@ -10086,7 +10086,7 @@
         <v>77862</v>
       </c>
       <c r="E400" t="n">
-        <v>1.56839804524953</v>
+        <v>1.35332592358125</v>
       </c>
     </row>
     <row r="401">
@@ -10103,7 +10103,7 @@
         <v>119126</v>
       </c>
       <c r="E401" t="n">
-        <v>1.75402175880948</v>
+        <v>1.51314187457526</v>
       </c>
     </row>
     <row r="402">
@@ -10120,7 +10120,7 @@
         <v>84029</v>
       </c>
       <c r="E402" t="n">
-        <v>1.50822482417717</v>
+        <v>1.29223604082946</v>
       </c>
     </row>
     <row r="403">
@@ -10137,7 +10137,7 @@
         <v>135709</v>
       </c>
       <c r="E403" t="n">
-        <v>0.897358399497569</v>
+        <v>0.628065623202058</v>
       </c>
     </row>
     <row r="404">
@@ -10154,7 +10154,7 @@
         <v>113563</v>
       </c>
       <c r="E404" t="n">
-        <v>1.09512256473312</v>
+        <v>0.898523239856947</v>
       </c>
     </row>
     <row r="405">
@@ -10171,7 +10171,7 @@
         <v>325600</v>
       </c>
       <c r="E405" t="n">
-        <v>1.62788431320329</v>
+        <v>1.40526464538094</v>
       </c>
     </row>
     <row r="406">
@@ -10188,7 +10188,7 @@
         <v>1341103</v>
       </c>
       <c r="E406" t="n">
-        <v>1.55559172914242</v>
+        <v>1.33052820382193</v>
       </c>
     </row>
     <row r="407">
@@ -10205,7 +10205,7 @@
         <v>136266</v>
       </c>
       <c r="E407" t="n">
-        <v>0.916406164785647</v>
+        <v>0.643918375468061</v>
       </c>
     </row>
     <row r="408">
@@ -10222,7 +10222,7 @@
         <v>90271</v>
       </c>
       <c r="E408" t="n">
-        <v>1.71262909288549</v>
+        <v>1.48190225958182</v>
       </c>
     </row>
     <row r="409">
@@ -10239,7 +10239,7 @@
         <v>683583</v>
       </c>
       <c r="E409" t="n">
-        <v>1.78152573265414</v>
+        <v>1.56932994142243</v>
       </c>
     </row>
     <row r="410">
@@ -10256,7 +10256,7 @@
         <v>876060</v>
       </c>
       <c r="E410" t="n">
-        <v>1.31542173674724</v>
+        <v>1.05967889469685</v>
       </c>
     </row>
     <row r="411">
@@ -10273,7 +10273,7 @@
         <v>177281</v>
       </c>
       <c r="E411" t="n">
-        <v>0.372012321176955</v>
+        <v>0.144377009146743</v>
       </c>
     </row>
     <row r="412">
@@ -10290,7 +10290,7 @@
         <v>237607</v>
       </c>
       <c r="E412" t="n">
-        <v>1.47606192394749</v>
+        <v>1.26319712190001</v>
       </c>
     </row>
     <row r="413">
@@ -10307,7 +10307,7 @@
         <v>193812</v>
       </c>
       <c r="E413" t="n">
-        <v>1.39521740690496</v>
+        <v>1.19901188658977</v>
       </c>
     </row>
     <row r="414">
@@ -10324,7 +10324,7 @@
         <v>2313230</v>
       </c>
       <c r="E414" t="n">
-        <v>1.54772513840424</v>
+        <v>1.33097110146405</v>
       </c>
     </row>
     <row r="415">
@@ -10341,7 +10341,7 @@
         <v>240369</v>
       </c>
       <c r="E415" t="n">
-        <v>1.35450289278122</v>
+        <v>1.1461251260291</v>
       </c>
     </row>
     <row r="416">
@@ -10358,7 +10358,7 @@
         <v>145484</v>
       </c>
       <c r="E416" t="n">
-        <v>1.40967347797483</v>
+        <v>1.17243055071621</v>
       </c>
     </row>
     <row r="417">
@@ -10375,7 +10375,7 @@
         <v>105105</v>
       </c>
       <c r="E417" t="n">
-        <v>0.80460172531752</v>
+        <v>0.559632896962024</v>
       </c>
     </row>
     <row r="418">
@@ -10392,7 +10392,7 @@
         <v>106656</v>
       </c>
       <c r="E418" t="n">
-        <v>0.863726824270629</v>
+        <v>0.594590839475958</v>
       </c>
     </row>
     <row r="419">
@@ -10409,7 +10409,7 @@
         <v>83081</v>
       </c>
       <c r="E419" t="n">
-        <v>1.50177837302537</v>
+        <v>1.26153580809672</v>
       </c>
     </row>
     <row r="420">
@@ -10426,7 +10426,7 @@
         <v>253887</v>
       </c>
       <c r="E420" t="n">
-        <v>1.40908397304583</v>
+        <v>1.18767094448714</v>
       </c>
     </row>
     <row r="421">
@@ -10443,7 +10443,7 @@
         <v>142699</v>
       </c>
       <c r="E421" t="n">
-        <v>1.8488655187084</v>
+        <v>1.61428653463988</v>
       </c>
     </row>
     <row r="422">
@@ -10460,7 +10460,7 @@
         <v>181330</v>
       </c>
       <c r="E422" t="n">
-        <v>0.523172495943776</v>
+        <v>0.287001664102914</v>
       </c>
     </row>
     <row r="423">
@@ -10477,7 +10477,7 @@
         <v>143822</v>
       </c>
       <c r="E423" t="n">
-        <v>1.43934244991501</v>
+        <v>1.22651570122937</v>
       </c>
     </row>
     <row r="424">
@@ -10494,7 +10494,7 @@
         <v>136090</v>
       </c>
       <c r="E424" t="n">
-        <v>1.11446614851023</v>
+        <v>0.853853977427546</v>
       </c>
     </row>
     <row r="425">
@@ -10511,7 +10511,7 @@
         <v>72519</v>
       </c>
       <c r="E425" t="n">
-        <v>1.06632340027123</v>
+        <v>0.844791945349154</v>
       </c>
     </row>
     <row r="426">
@@ -10528,7 +10528,7 @@
         <v>117105</v>
       </c>
       <c r="E426" t="n">
-        <v>1.38510114222262</v>
+        <v>1.11784793999521</v>
       </c>
     </row>
     <row r="427">
@@ -10545,7 +10545,7 @@
         <v>153533</v>
       </c>
       <c r="E427" t="n">
-        <v>1.58217912781717</v>
+        <v>1.37701513191717</v>
       </c>
     </row>
     <row r="428">
@@ -10562,7 +10562,7 @@
         <v>125198</v>
       </c>
       <c r="E428" t="n">
-        <v>0.897665560928001</v>
+        <v>0.632565841747548</v>
       </c>
     </row>
     <row r="429">
@@ -10579,7 +10579,7 @@
         <v>285312</v>
       </c>
       <c r="E429" t="n">
-        <v>0.653384773063807</v>
+        <v>0.421674326831389</v>
       </c>
     </row>
     <row r="430">
@@ -10596,7 +10596,7 @@
         <v>116783</v>
       </c>
       <c r="E430" t="n">
-        <v>1.32638561876938</v>
+        <v>1.13401047396477</v>
       </c>
     </row>
     <row r="431">
@@ -10613,7 +10613,7 @@
         <v>123560</v>
       </c>
       <c r="E431" t="n">
-        <v>0.587440946454897</v>
+        <v>0.34394783029465</v>
       </c>
     </row>
     <row r="432">
@@ -10630,7 +10630,7 @@
         <v>94940</v>
       </c>
       <c r="E432" t="n">
-        <v>1.39386619648818</v>
+        <v>1.13591099727405</v>
       </c>
     </row>
     <row r="433">
@@ -10647,7 +10647,7 @@
         <v>1511913</v>
       </c>
       <c r="E433" t="n">
-        <v>1.5961769666618</v>
+        <v>1.37893259484613</v>
       </c>
     </row>
     <row r="434">
@@ -10664,7 +10664,7 @@
         <v>88488</v>
       </c>
       <c r="E434" t="n">
-        <v>0.649950033401659</v>
+        <v>0.425427116233233</v>
       </c>
     </row>
     <row r="435">
@@ -10681,7 +10681,7 @@
         <v>104998</v>
       </c>
       <c r="E435" t="n">
-        <v>1.3656924686099</v>
+        <v>1.10621596792769</v>
       </c>
     </row>
     <row r="436">
@@ -10698,7 +10698,7 @@
         <v>136437</v>
       </c>
       <c r="E436" t="n">
-        <v>1.59007847881676</v>
+        <v>1.34841234334744</v>
       </c>
     </row>
     <row r="437">
@@ -10715,7 +10715,7 @@
         <v>104745</v>
       </c>
       <c r="E437" t="n">
-        <v>1.35902810734187</v>
+        <v>1.07673570386008</v>
       </c>
     </row>
     <row r="438">
@@ -10732,7 +10732,7 @@
         <v>76694</v>
       </c>
       <c r="E438" t="n">
-        <v>0.565589795120063</v>
+        <v>0.32787179169042</v>
       </c>
     </row>
     <row r="439">
@@ -10749,7 +10749,7 @@
         <v>87037</v>
       </c>
       <c r="E439" t="n">
-        <v>0.97616190496918</v>
+        <v>0.687269687429053</v>
       </c>
     </row>
     <row r="440">
@@ -10766,7 +10766,7 @@
         <v>97840</v>
       </c>
       <c r="E440" t="n">
-        <v>0.758054656457933</v>
+        <v>0.503325563739687</v>
       </c>
     </row>
     <row r="441">
@@ -10783,7 +10783,7 @@
         <v>117331</v>
       </c>
       <c r="E441" t="n">
-        <v>0.640439071843402</v>
+        <v>0.394418128758679</v>
       </c>
     </row>
     <row r="442">
@@ -10800,7 +10800,7 @@
         <v>84390</v>
       </c>
       <c r="E442" t="n">
-        <v>0.983517924290894</v>
+        <v>0.718209725893808</v>
       </c>
     </row>
     <row r="443">
@@ -10817,7 +10817,7 @@
         <v>200538</v>
       </c>
       <c r="E443" t="n">
-        <v>0.872441384039497</v>
+        <v>0.641245172298031</v>
       </c>
     </row>
     <row r="444">
@@ -10834,7 +10834,7 @@
         <v>96146</v>
       </c>
       <c r="E444" t="n">
-        <v>0.772211866651441</v>
+        <v>0.545090011290854</v>
       </c>
     </row>
     <row r="445">
@@ -10851,7 +10851,7 @@
         <v>113921</v>
       </c>
       <c r="E445" t="n">
-        <v>0.662246977171748</v>
+        <v>0.431032442770103</v>
       </c>
     </row>
     <row r="446">
@@ -10868,7 +10868,7 @@
         <v>136166</v>
       </c>
       <c r="E446" t="n">
-        <v>0.985810045895819</v>
+        <v>0.75503680662501</v>
       </c>
     </row>
     <row r="447">
@@ -10885,7 +10885,7 @@
         <v>160035</v>
       </c>
       <c r="E447" t="n">
-        <v>0.926844777875689</v>
+        <v>0.705525961584201</v>
       </c>
     </row>
     <row r="448">
@@ -10902,7 +10902,7 @@
         <v>240397</v>
       </c>
       <c r="E448" t="n">
-        <v>0.996126265322827</v>
+        <v>0.71475970742306</v>
       </c>
     </row>
     <row r="449">
@@ -10919,7 +10919,7 @@
         <v>134669</v>
       </c>
       <c r="E449" t="n">
-        <v>1.69630101509775</v>
+        <v>1.47831522922051</v>
       </c>
     </row>
     <row r="450">
@@ -10936,7 +10936,7 @@
         <v>80995</v>
       </c>
       <c r="E450" t="n">
-        <v>1.5145789603009</v>
+        <v>1.28848180702113</v>
       </c>
     </row>
     <row r="451">
@@ -10953,7 +10953,7 @@
         <v>179388</v>
       </c>
       <c r="E451" t="n">
-        <v>1.53731688595171</v>
+        <v>1.32340145732997</v>
       </c>
     </row>
     <row r="452">
@@ -10970,7 +10970,7 @@
         <v>244703</v>
       </c>
       <c r="E452" t="n">
-        <v>1.55378313037171</v>
+        <v>1.33155183468498</v>
       </c>
     </row>
     <row r="453">
@@ -10987,7 +10987,7 @@
         <v>94572</v>
       </c>
       <c r="E453" t="n">
-        <v>1.6860183329</v>
+        <v>1.46946897579204</v>
       </c>
     </row>
     <row r="454">
@@ -11004,7 +11004,7 @@
         <v>227032</v>
       </c>
       <c r="E454" t="n">
-        <v>1.59716370514843</v>
+        <v>1.38118281424511</v>
       </c>
     </row>
     <row r="455">
@@ -11021,7 +11021,7 @@
         <v>99837</v>
       </c>
       <c r="E455" t="n">
-        <v>1.49019528589237</v>
+        <v>1.26300520995304</v>
       </c>
     </row>
     <row r="456">
@@ -11038,7 +11038,7 @@
         <v>90237</v>
       </c>
       <c r="E456" t="n">
-        <v>1.17400558854231</v>
+        <v>0.921609132277785</v>
       </c>
     </row>
     <row r="457">
@@ -11055,7 +11055,7 @@
         <v>450435</v>
       </c>
       <c r="E457" t="n">
-        <v>0.953915134621559</v>
+        <v>0.716832890077964</v>
       </c>
     </row>
     <row r="458">
@@ -11072,7 +11072,7 @@
         <v>79619</v>
       </c>
       <c r="E458" t="n">
-        <v>0.869610612780139</v>
+        <v>0.641694830371737</v>
       </c>
     </row>
     <row r="459">
@@ -11089,7 +11089,7 @@
         <v>144459</v>
       </c>
       <c r="E459" t="n">
-        <v>0.714636185574214</v>
+        <v>0.506152400732139</v>
       </c>
     </row>
     <row r="460">
@@ -11106,7 +11106,7 @@
         <v>89044</v>
       </c>
       <c r="E460" t="n">
-        <v>1.03075486415802</v>
+        <v>0.784821300952203</v>
       </c>
     </row>
     <row r="461">
@@ -11123,7 +11123,7 @@
         <v>110086</v>
       </c>
       <c r="E461" t="n">
-        <v>0.855428126768028</v>
+        <v>0.573027916359903</v>
       </c>
     </row>
     <row r="462">
@@ -11140,7 +11140,7 @@
         <v>96691</v>
       </c>
       <c r="E462" t="n">
-        <v>0.987099012342653</v>
+        <v>0.778198653235856</v>
       </c>
     </row>
     <row r="463">
@@ -11157,7 +11157,7 @@
         <v>81601</v>
       </c>
       <c r="E463" t="n">
-        <v>1.07170150610638</v>
+        <v>0.805349824139466</v>
       </c>
     </row>
     <row r="464">
@@ -11174,7 +11174,7 @@
         <v>128463</v>
       </c>
       <c r="E464" t="n">
-        <v>0.963975786192292</v>
+        <v>0.741023787592735</v>
       </c>
     </row>
     <row r="465">
@@ -11191,7 +11191,7 @@
         <v>101372</v>
       </c>
       <c r="E465" t="n">
-        <v>0.857625393496979</v>
+        <v>0.649349687627956</v>
       </c>
     </row>
     <row r="466">
@@ -11208,7 +11208,7 @@
         <v>724764</v>
       </c>
       <c r="E466" t="n">
-        <v>0.762827762388175</v>
+        <v>0.552144189811564</v>
       </c>
     </row>
     <row r="467">
@@ -11225,7 +11225,7 @@
         <v>217096</v>
       </c>
       <c r="E467" t="n">
-        <v>0.916876846195375</v>
+        <v>0.661612996050513</v>
       </c>
     </row>
     <row r="468">
@@ -11242,7 +11242,7 @@
         <v>97858</v>
       </c>
       <c r="E468" t="n">
-        <v>0.82812158037355</v>
+        <v>0.572388267760097</v>
       </c>
     </row>
     <row r="469">
@@ -11259,7 +11259,7 @@
         <v>213426</v>
       </c>
       <c r="E469" t="n">
-        <v>0.932645697172066</v>
+        <v>0.67888605117492</v>
       </c>
     </row>
     <row r="470">
@@ -11276,7 +11276,7 @@
         <v>175661</v>
       </c>
       <c r="E470" t="n">
-        <v>0.929253743846628</v>
+        <v>0.67050889738328</v>
       </c>
     </row>
     <row r="471">
@@ -11293,7 +11293,7 @@
         <v>93669</v>
       </c>
       <c r="E471" t="n">
-        <v>1.51774987887064</v>
+        <v>1.27394481081111</v>
       </c>
     </row>
     <row r="472">
@@ -11310,7 +11310,7 @@
         <v>73984</v>
       </c>
       <c r="E472" t="n">
-        <v>0.552285024457311</v>
+        <v>0.299357612079537</v>
       </c>
     </row>
     <row r="473">
@@ -11327,7 +11327,7 @@
         <v>105114</v>
       </c>
       <c r="E473" t="n">
-        <v>0.914386329825011</v>
+        <v>0.627683923021042</v>
       </c>
     </row>
     <row r="474">
@@ -11344,7 +11344,7 @@
         <v>99875</v>
       </c>
       <c r="E474" t="n">
-        <v>1.14640809726951</v>
+        <v>0.898242855566909</v>
       </c>
     </row>
     <row r="475">
@@ -11361,7 +11361,7 @@
         <v>255239</v>
       </c>
       <c r="E475" t="n">
-        <v>0.814390327609344</v>
+        <v>0.554191603319549</v>
       </c>
     </row>
     <row r="476">
@@ -11378,7 +11378,7 @@
         <v>595365</v>
       </c>
       <c r="E476" t="n">
-        <v>1.53317912869726</v>
+        <v>1.31865684135685</v>
       </c>
     </row>
     <row r="477">
@@ -11395,7 +11395,7 @@
         <v>77555</v>
       </c>
       <c r="E477" t="n">
-        <v>1.17069624698891</v>
+        <v>0.898111430860938</v>
       </c>
     </row>
     <row r="478">
@@ -11412,7 +11412,7 @@
         <v>72483</v>
       </c>
       <c r="E478" t="n">
-        <v>0.652164036851706</v>
+        <v>0.405405371874845</v>
       </c>
     </row>
   </sheetData>
